--- a/data/input_data_Spain.xlsx
+++ b/data/input_data_Spain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C5D1F-CDA5-4F6F-9FC3-E7296B947A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3EE83-D782-4A0D-9085-E378708B94AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5731,7 +5731,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,7 +6073,7 @@
         <v>97</v>
       </c>
       <c r="D10" s="53">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="56">
         <v>1</v>
@@ -6104,7 +6104,7 @@
         <v>98</v>
       </c>
       <c r="D11" s="35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="22">
         <v>1</v>

--- a/data/input_data_Spain.xlsx
+++ b/data/input_data_Spain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3EE83-D782-4A0D-9085-E378708B94AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010C002-49AC-4AAF-8537-96EEAA1B64C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="101">
   <si>
     <t>0-4</t>
   </si>
@@ -359,9 +359,6 @@
     <t>phase3</t>
   </si>
   <si>
-    <t>newnormality</t>
-  </si>
-  <si>
     <t>relax</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>advanced phase</t>
   </si>
   <si>
-    <t>State of alarm expiry, new normality</t>
-  </si>
-  <si>
     <t>restrictions</t>
   </si>
   <si>
@@ -387,6 +381,18 @@
   </si>
   <si>
     <t>Relax2</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>newnormal</t>
+  </si>
+  <si>
+    <t>State of alarm expiry, new normal</t>
+  </si>
+  <si>
+    <t>An additional measure came into force on 30 July: restrictions include limiting public gatherings to ten people and making the use of masks mandatory in all public spaces.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -834,24 +840,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -866,6 +857,76 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,10 +1293,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,58 +1365,58 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="45">
         <v>167869</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="45">
         <v>194145</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="45">
         <v>208171</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="45">
         <v>193178</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="45">
         <v>192005</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="45">
         <v>217432</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="45">
         <v>236172</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="45">
         <v>275198</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="45">
         <v>325378</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="45">
         <v>313205</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="45">
         <v>284914</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="45">
         <v>260901</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="45">
         <v>233875</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="45">
         <v>203325</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="45">
         <v>192842</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="45">
         <v>154710</v>
       </c>
       <c r="S2">
@@ -1364,56 +1425,56 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="45">
         <v>177630</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="45">
         <v>206667</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="45">
         <v>222951</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="45">
         <v>210730</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="45">
         <v>205258</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="45">
         <v>222423</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="45">
         <v>232504</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="45">
         <v>271512</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="45">
         <v>334365</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="45">
         <v>323846</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="45">
         <v>287712</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="45">
         <v>250172</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="45">
         <v>215114</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="45">
         <v>180077</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="45">
         <v>162732</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="45">
         <v>123018</v>
       </c>
       <c r="S3">
@@ -1422,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -1498,7 +1559,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
@@ -1571,10 +1632,280 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="45">
+        <v>149012</v>
+      </c>
+      <c r="D6" s="45">
+        <v>168854</v>
+      </c>
+      <c r="E6" s="45">
+        <v>175466</v>
+      </c>
+      <c r="F6" s="45">
+        <v>166743</v>
+      </c>
+      <c r="G6" s="45">
+        <v>172085</v>
+      </c>
+      <c r="H6" s="45">
+        <v>203821</v>
+      </c>
+      <c r="I6" s="45">
+        <v>225196</v>
+      </c>
+      <c r="J6" s="45">
+        <v>261147</v>
+      </c>
+      <c r="K6" s="45">
+        <v>301153</v>
+      </c>
+      <c r="L6" s="45">
+        <v>291121</v>
+      </c>
+      <c r="M6" s="45">
+        <v>266578</v>
+      </c>
+      <c r="N6" s="45">
+        <v>240501</v>
+      </c>
+      <c r="O6" s="45">
+        <v>207255</v>
+      </c>
+      <c r="P6" s="45">
+        <v>174895</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>164354</v>
+      </c>
+      <c r="R6" s="45">
+        <v>131914</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S7" si="3">SUM(C6:R6)</f>
+        <v>3300095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="45">
+        <v>157045</v>
+      </c>
+      <c r="D7" s="45">
+        <v>177773</v>
+      </c>
+      <c r="E7" s="45">
+        <v>185018</v>
+      </c>
+      <c r="F7" s="45">
+        <v>174635</v>
+      </c>
+      <c r="G7" s="45">
+        <v>172211</v>
+      </c>
+      <c r="H7" s="45">
+        <v>194228</v>
+      </c>
+      <c r="I7" s="45">
+        <v>213256</v>
+      </c>
+      <c r="J7" s="45">
+        <v>249847</v>
+      </c>
+      <c r="K7" s="45">
+        <v>292561</v>
+      </c>
+      <c r="L7" s="45">
+        <v>280987</v>
+      </c>
+      <c r="M7" s="45">
+        <v>249694</v>
+      </c>
+      <c r="N7" s="45">
+        <v>215912</v>
+      </c>
+      <c r="O7" s="45">
+        <v>177507</v>
+      </c>
+      <c r="P7" s="45">
+        <v>143624</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>130191</v>
+      </c>
+      <c r="R7" s="45">
+        <v>99620</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>3114109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C6:C7)</f>
+        <v>306057</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:S8" si="4">SUM(D6:D7)</f>
+        <v>346627</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>360484</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>341378</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>344296</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>398049</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>438452</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>510994</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>593714</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>572108</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>516272</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>456413</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>384762</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>318519</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>294545</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>231534</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>6414204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <f>C8/$S$8</f>
+        <v>4.7715507645219889E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:S9" si="5">D8/$S$8</f>
+        <v>5.4040532543087189E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>5.6200894140566782E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>5.3222192496528022E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>5.3677120341043098E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>6.2057427546738458E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>6.8356416478178736E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>7.9666003762898716E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>9.2562381863751139E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>8.9193920243260116E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>8.0488865025184736E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>7.1156608053002363E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>5.9985931223889982E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>4.9658383175839121E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>4.592074090565252E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>3.6097074555159141E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1585,10 +1916,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD305"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1984,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1712,7 +2043,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +2100,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +2157,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +2214,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +2271,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2328,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2385,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2442,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2168,7 +2499,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2282,7 +2613,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2670,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2727,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2784,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2510,7 +2841,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2566,9 +2897,924 @@
         <v>3.7499707498729302</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.79551958365123276</v>
+      </c>
+      <c r="D18">
+        <v>0.38470961657271252</v>
+      </c>
+      <c r="E18">
+        <v>0.1671640103794419</v>
+      </c>
+      <c r="F18">
+        <v>7.2708405073140567E-2</v>
+      </c>
+      <c r="G18">
+        <v>7.7725321082527346E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.15733964016476501</v>
+      </c>
+      <c r="I18">
+        <v>0.39657030209749622</v>
+      </c>
+      <c r="J18">
+        <v>0.53114319085998374</v>
+      </c>
+      <c r="K18">
+        <v>0.34879455377316082</v>
+      </c>
+      <c r="L18">
+        <v>7.2239194507138477E-2</v>
+      </c>
+      <c r="M18">
+        <v>4.3755768923706619E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.8912888681961211E-2</v>
+      </c>
+      <c r="O18">
+        <v>3.2608056159134403E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.617452891094915E-2</v>
+      </c>
+      <c r="Q18">
+        <v>4.956852045695479E-3</v>
+      </c>
+      <c r="R18">
+        <v>1.207298225676505E-2</v>
+      </c>
+      <c r="S18">
+        <v>3.142394895139812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.23040898028566581</v>
+      </c>
+      <c r="D19">
+        <v>0.98454671949828987</v>
+      </c>
+      <c r="E19">
+        <v>0.34167030883832322</v>
+      </c>
+      <c r="F19">
+        <v>0.108147834034824</v>
+      </c>
+      <c r="G19">
+        <v>4.9571896207464439E-2</v>
+      </c>
+      <c r="H19">
+        <v>9.958708537827686E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.29783804429852861</v>
+      </c>
+      <c r="J19">
+        <v>0.45230594756279441</v>
+      </c>
+      <c r="K19">
+        <v>0.57001534050423563</v>
+      </c>
+      <c r="L19">
+        <v>0.17872322466383689</v>
+      </c>
+      <c r="M19">
+        <v>5.3001323101429527E-2</v>
+      </c>
+      <c r="N19">
+        <v>3.4410876666830868E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.830469424308365E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.1910524704838809E-2</v>
+      </c>
+      <c r="Q19">
+        <v>5.2730470425868996E-3</v>
+      </c>
+      <c r="R19">
+        <v>1.165351605183689E-2</v>
+      </c>
+      <c r="S19">
+        <v>3.447369363082847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.1084360691811519</v>
+      </c>
+      <c r="D20">
+        <v>0.38289571285147478</v>
+      </c>
+      <c r="E20">
+        <v>1.247747928220339</v>
+      </c>
+      <c r="F20">
+        <v>0.2875461124901757</v>
+      </c>
+      <c r="G20">
+        <v>6.5261211817989676E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.4087840943767267E-2</v>
+      </c>
+      <c r="I20">
+        <v>8.6326768253881303E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.28738981334079461</v>
+      </c>
+      <c r="K20">
+        <v>0.54278399413972389</v>
+      </c>
+      <c r="L20">
+        <v>0.2480550618111293</v>
+      </c>
+      <c r="M20">
+        <v>0.1206222034452063</v>
+      </c>
+      <c r="N20">
+        <v>2.7999129068573509E-2</v>
+      </c>
+      <c r="O20">
+        <v>9.525670968859529E-3</v>
+      </c>
+      <c r="P20">
+        <v>1.120162509791741E-2</v>
+      </c>
+      <c r="Q20">
+        <v>1.606959130336794E-2</v>
+      </c>
+      <c r="R20">
+        <v>1.5147974527225329E-2</v>
+      </c>
+      <c r="S20">
+        <v>3.491096707461578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4.2977838503451458E-2</v>
+      </c>
+      <c r="D21">
+        <v>9.575069823872652E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.27874239410309748</v>
+      </c>
+      <c r="F21">
+        <v>0.97903287942725292</v>
+      </c>
+      <c r="G21">
+        <v>0.18786624585788411</v>
+      </c>
+      <c r="H21">
+        <v>4.3651157026150529E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.1936346716004099E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.10095893779118149</v>
+      </c>
+      <c r="K21">
+        <v>0.28082094092202492</v>
+      </c>
+      <c r="L21">
+        <v>0.42274446086012152</v>
+      </c>
+      <c r="M21">
+        <v>0.26123892656042158</v>
+      </c>
+      <c r="N21">
+        <v>5.4310181274607079E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.188468552954324E-2</v>
+      </c>
+      <c r="P21">
+        <v>7.262230430109943E-3</v>
+      </c>
+      <c r="Q21">
+        <v>5.4962233962289339E-3</v>
+      </c>
+      <c r="R21">
+        <v>8.8811186020720141E-3</v>
+      </c>
+      <c r="S21">
+        <v>2.8035552652388782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5.5283306020272573E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.8722303078436422E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.6219516627172024E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.33135460592115262</v>
+      </c>
+      <c r="G22">
+        <v>1.0516359133373809</v>
+      </c>
+      <c r="H22">
+        <v>0.17748074009920359</v>
+      </c>
+      <c r="I22">
+        <v>3.9692734922855757E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.394360234161374E-2</v>
+      </c>
+      <c r="K22">
+        <v>9.5300687970545667E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.3890620887134022</v>
+      </c>
+      <c r="M22">
+        <v>0.31506109704652763</v>
+      </c>
+      <c r="N22">
+        <v>0.15289735649327149</v>
+      </c>
+      <c r="O22">
+        <v>3.0406681164931039E-2</v>
+      </c>
+      <c r="P22">
+        <v>5.1618398004830797E-3</v>
+      </c>
+      <c r="Q22">
+        <v>6.9654390753629289E-3</v>
+      </c>
+      <c r="R22">
+        <v>1.0135177610771141E-2</v>
+      </c>
+      <c r="S22">
+        <v>2.8193230902233828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.20566102876797651</v>
+      </c>
+      <c r="D23">
+        <v>9.9520748374215637E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.3160934581922258E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.1032432138571754</v>
+      </c>
+      <c r="G23">
+        <v>0.27865078595120851</v>
+      </c>
+      <c r="H23">
+        <v>1.018206259303972</v>
+      </c>
+      <c r="I23">
+        <v>0.20740145001540511</v>
+      </c>
+      <c r="J23">
+        <v>2.605460315221917E-2</v>
+      </c>
+      <c r="K23">
+        <v>2.0791548542179409E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.12629386246595181</v>
+      </c>
+      <c r="M23">
+        <v>0.33269660911720689</v>
+      </c>
+      <c r="N23">
+        <v>0.27803118949260069</v>
+      </c>
+      <c r="O23">
+        <v>0.1148664054571813</v>
+      </c>
+      <c r="P23">
+        <v>2.5607519571295981E-2</v>
+      </c>
+      <c r="Q23">
+        <v>4.9233490787045841E-3</v>
+      </c>
+      <c r="R23">
+        <v>1.7729758953153939E-2</v>
+      </c>
+      <c r="S23">
+        <v>2.9028392666823688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.4981859943927483</v>
+      </c>
+      <c r="D24">
+        <v>0.47471665259138929</v>
+      </c>
+      <c r="E24">
+        <v>0.18122665679244671</v>
+      </c>
+      <c r="F24">
+        <v>4.0998193138264437E-2</v>
+      </c>
+      <c r="G24">
+        <v>7.0285984091335865E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.2214467679518069</v>
+      </c>
+      <c r="I24">
+        <v>1.133751860444983</v>
+      </c>
+      <c r="J24">
+        <v>0.2455350116247238</v>
+      </c>
+      <c r="K24">
+        <v>8.3713345049677076E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.9154561817220431E-2</v>
+      </c>
+      <c r="M24">
+        <v>5.0810427759438281E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.1428196901372891</v>
+      </c>
+      <c r="O24">
+        <v>0.167612338652145</v>
+      </c>
+      <c r="P24">
+        <v>3.5244249337588761E-2</v>
+      </c>
+      <c r="Q24">
+        <v>1.675258398014973E-2</v>
+      </c>
+      <c r="R24">
+        <v>1.5295649358279151E-2</v>
+      </c>
+      <c r="S24">
+        <v>3.397549967119486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.58767670936133543</v>
+      </c>
+      <c r="D25">
+        <v>0.75570517616102317</v>
+      </c>
+      <c r="E25">
+        <v>0.51782801736249262</v>
+      </c>
+      <c r="F25">
+        <v>0.17392606161050281</v>
+      </c>
+      <c r="G25">
+        <v>2.4928226289986619E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.0094828100164089E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.1769099277045848</v>
+      </c>
+      <c r="J25">
+        <v>1.136182952698457</v>
+      </c>
+      <c r="K25">
+        <v>0.23051491730079979</v>
+      </c>
+      <c r="L25">
+        <v>4.4502971399860702E-2</v>
+      </c>
+      <c r="M25">
+        <v>1.9184884753746159E-2</v>
+      </c>
+      <c r="N25">
+        <v>1.6010735862326101E-2</v>
+      </c>
+      <c r="O25">
+        <v>6.8863767567588705E-2</v>
+      </c>
+      <c r="P25">
+        <v>4.0161873019954289E-2</v>
+      </c>
+      <c r="Q25">
+        <v>1.506276556793365E-2</v>
+      </c>
+      <c r="R25">
+        <v>9.7575390793803712E-3</v>
+      </c>
+      <c r="S25">
+        <v>3.8473113538401371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.27451942182408451</v>
+      </c>
+      <c r="D26">
+        <v>0.58810452122156598</v>
+      </c>
+      <c r="E26">
+        <v>0.62882431398609651</v>
+      </c>
+      <c r="F26">
+        <v>0.36038700231691401</v>
+      </c>
+      <c r="G26">
+        <v>8.6737227572879286E-2</v>
+      </c>
+      <c r="H26">
+        <v>2.4228353466160091E-2</v>
+      </c>
+      <c r="I26">
+        <v>6.5992708688767512E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.17771504273676569</v>
+      </c>
+      <c r="K26">
+        <v>0.90005468676107192</v>
+      </c>
+      <c r="L26">
+        <v>0.14738743867590789</v>
+      </c>
+      <c r="M26">
+        <v>4.5607142304933582E-2</v>
+      </c>
+      <c r="N26">
+        <v>9.1352231789990062E-3</v>
+      </c>
+      <c r="O26">
+        <v>2.273848829873713E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.7525573803046152E-2</v>
+      </c>
+      <c r="Q26">
+        <v>1.2359852340243329E-2</v>
+      </c>
+      <c r="R26">
+        <v>1.6998754850233739E-2</v>
+      </c>
+      <c r="S26">
+        <v>3.388315752026406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>8.7659130836481775E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.24361407592925649</v>
+      </c>
+      <c r="E27">
+        <v>0.36089784053263552</v>
+      </c>
+      <c r="F27">
+        <v>0.57382615553570782</v>
+      </c>
+      <c r="G27">
+        <v>0.33643104785074063</v>
+      </c>
+      <c r="H27">
+        <v>7.7252816834604138E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.0369033959611382E-2</v>
+      </c>
+      <c r="J27">
+        <v>6.3099054490633355E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.1517972010833486</v>
+      </c>
+      <c r="L27">
+        <v>0.834144524568457</v>
+      </c>
+      <c r="M27">
+        <v>0.16970126861711959</v>
+      </c>
+      <c r="N27">
+        <v>4.1066027621850992E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.280804156795496E-2</v>
+      </c>
+      <c r="P27">
+        <v>7.2565523677254346E-3</v>
+      </c>
+      <c r="Q27">
+        <v>8.6530652771094618E-3</v>
+      </c>
+      <c r="R27">
+        <v>3.5315130176498767E-2</v>
+      </c>
+      <c r="S27">
+        <v>3.0238909672497352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.1082242059906481</v>
+      </c>
+      <c r="D28">
+        <v>0.1136845324826553</v>
+      </c>
+      <c r="E28">
+        <v>0.26773089546919437</v>
+      </c>
+      <c r="F28">
+        <v>0.39465673635979942</v>
+      </c>
+      <c r="G28">
+        <v>0.42429487111989161</v>
+      </c>
+      <c r="H28">
+        <v>0.223409143989451</v>
+      </c>
+      <c r="I28">
+        <v>6.7213099678149937E-2</v>
+      </c>
+      <c r="J28">
+        <v>2.7702014701834261E-2</v>
+      </c>
+      <c r="K28">
+        <v>8.4117035058827005E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.1982726684192169</v>
+      </c>
+      <c r="M28">
+        <v>0.79920901131062361</v>
+      </c>
+      <c r="N28">
+        <v>0.14305705353271009</v>
+      </c>
+      <c r="O28">
+        <v>1.998337705157037E-2</v>
+      </c>
+      <c r="P28">
+        <v>5.7460479869887084E-3</v>
+      </c>
+      <c r="Q28">
+        <v>8.6369438403275291E-3</v>
+      </c>
+      <c r="R28">
+        <v>4.9049418202064363E-2</v>
+      </c>
+      <c r="S28">
+        <v>2.9349870551939521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.16800107987789251</v>
+      </c>
+      <c r="D29">
+        <v>0.18178254900208959</v>
+      </c>
+      <c r="E29">
+        <v>0.13488792537048749</v>
+      </c>
+      <c r="F29">
+        <v>0.2099613974349944</v>
+      </c>
+      <c r="G29">
+        <v>0.26808625324629137</v>
+      </c>
+      <c r="H29">
+        <v>0.36164035304321729</v>
+      </c>
+      <c r="I29">
+        <v>0.25596249873321891</v>
+      </c>
+      <c r="J29">
+        <v>4.5358997585908313E-2</v>
+      </c>
+      <c r="K29">
+        <v>3.6746993284449109E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.13775222130924619</v>
+      </c>
+      <c r="M29">
+        <v>0.19900530402272201</v>
+      </c>
+      <c r="N29">
+        <v>0.76666837979764579</v>
+      </c>
+      <c r="O29">
+        <v>0.13139622663974229</v>
+      </c>
+      <c r="P29">
+        <v>4.3738660853557078E-2</v>
+      </c>
+      <c r="Q29">
+        <v>5.1787704534546246E-3</v>
+      </c>
+      <c r="R29">
+        <v>4.0755459323808162E-2</v>
+      </c>
+      <c r="S29">
+        <v>2.986923069978725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0.2228554779538674</v>
+      </c>
+      <c r="D30">
+        <v>0.184123205674355</v>
+      </c>
+      <c r="E30">
+        <v>0.1206989860397138</v>
+      </c>
+      <c r="F30">
+        <v>0.113377443222931</v>
+      </c>
+      <c r="G30">
+        <v>0.1272805720751114</v>
+      </c>
+      <c r="H30">
+        <v>0.21278345142483171</v>
+      </c>
+      <c r="I30">
+        <v>0.35696706601464029</v>
+      </c>
+      <c r="J30">
+        <v>0.19339515875335039</v>
+      </c>
+      <c r="K30">
+        <v>7.5012471521901464E-2</v>
+      </c>
+      <c r="L30">
+        <v>4.2500899050580569E-2</v>
+      </c>
+      <c r="M30">
+        <v>6.6144394593464384E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.19755583288133871</v>
+      </c>
+      <c r="O30">
+        <v>0.70751507456794993</v>
+      </c>
+      <c r="P30">
+        <v>0.10794888053537691</v>
+      </c>
+      <c r="Q30">
+        <v>2.7069019060975079E-2</v>
+      </c>
+      <c r="R30">
+        <v>1.4228781417746181E-2</v>
+      </c>
+      <c r="S30">
+        <v>2.7694567147881339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.17908857009204199</v>
+      </c>
+      <c r="D31">
+        <v>0.24791329017905481</v>
+      </c>
+      <c r="E31">
+        <v>0.2147951477860256</v>
+      </c>
+      <c r="F31">
+        <v>0.1133653963267979</v>
+      </c>
+      <c r="G31">
+        <v>8.974437704454219E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.12443534937988129</v>
+      </c>
+      <c r="I31">
+        <v>0.30180178221930898</v>
+      </c>
+      <c r="J31">
+        <v>0.29669337998295858</v>
+      </c>
+      <c r="K31">
+        <v>0.22595888907943981</v>
+      </c>
+      <c r="L31">
+        <v>5.5202443668198001E-2</v>
+      </c>
+      <c r="M31">
+        <v>5.1749452192135927E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.1289424730280414</v>
+      </c>
+      <c r="O31">
+        <v>0.16038340949993449</v>
+      </c>
+      <c r="P31">
+        <v>0.71943372221258317</v>
+      </c>
+      <c r="Q31">
+        <v>7.8708991075089857E-2</v>
+      </c>
+      <c r="R31">
+        <v>1.8334452249545399E-2</v>
+      </c>
+      <c r="S31">
+        <v>3.0065511260155788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>8.0036636444986556E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.2321423216483755</v>
+      </c>
+      <c r="E32">
+        <v>0.24682408948921039</v>
+      </c>
+      <c r="F32">
+        <v>0.17349694285159939</v>
+      </c>
+      <c r="G32">
+        <v>4.6500390375646163E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.10241277746784699</v>
+      </c>
+      <c r="I32">
+        <v>0.11426894212337629</v>
+      </c>
+      <c r="J32">
+        <v>0.203165965951254</v>
+      </c>
+      <c r="K32">
+        <v>0.23872268959275</v>
+      </c>
+      <c r="L32">
+        <v>0.1537291283730341</v>
+      </c>
+      <c r="M32">
+        <v>9.8335250158654103E-2</v>
+      </c>
+      <c r="N32">
+        <v>4.3322938035508893E-2</v>
+      </c>
+      <c r="O32">
+        <v>0.1341059353475216</v>
+      </c>
+      <c r="P32">
+        <v>0.12813143172861069</v>
+      </c>
+      <c r="Q32">
+        <v>0.47530515659862732</v>
+      </c>
+      <c r="R32">
+        <v>0.1046785582040599</v>
+      </c>
+      <c r="S32">
+        <v>2.575179154391062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>0.19373970855487091</v>
+      </c>
+      <c r="D33">
+        <v>0.25410946756263431</v>
+      </c>
+      <c r="E33">
+        <v>0.41067334966418412</v>
+      </c>
+      <c r="F33">
+        <v>0.32839072749644588</v>
+      </c>
+      <c r="G33">
+        <v>9.4802041746648053E-2</v>
+      </c>
+      <c r="H33">
+        <v>8.7855672973221582E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.12897348358550889</v>
+      </c>
+      <c r="J33">
+        <v>0.2410232769440607</v>
+      </c>
+      <c r="K33">
+        <v>0.33662951732212781</v>
+      </c>
+      <c r="L33">
+        <v>0.3718167327938609</v>
+      </c>
+      <c r="M33">
+        <v>0.4341316019128979</v>
+      </c>
+      <c r="N33">
+        <v>0.19990686775625949</v>
+      </c>
+      <c r="O33">
+        <v>8.5656041866122426E-2</v>
+      </c>
+      <c r="P33">
+        <v>9.6169492752541802E-2</v>
+      </c>
+      <c r="Q33">
+        <v>9.0124314935981678E-2</v>
+      </c>
+      <c r="R33">
+        <v>0.39596845200556358</v>
+      </c>
+      <c r="S33">
+        <v>3.7499707498729302</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2579,10 +3825,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A18:XFD305"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +3893,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2706,7 +3952,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +4009,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +4066,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2877,7 +4123,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +4180,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +4237,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3048,7 +4294,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +4351,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3162,7 +4408,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +4465,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +4522,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +4579,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +4636,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +4693,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3504,7 +4750,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3560,9 +4806,924 @@
         <v>5.008726668469516E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.6609697324467918</v>
+      </c>
+      <c r="D18">
+        <v>0.34346248710158411</v>
+      </c>
+      <c r="E18">
+        <v>5.7408676670717078E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.9907199120059478E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.4387548997853159E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.7059072785703587E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.19842275155017849</v>
+      </c>
+      <c r="J18">
+        <v>0.15602448210303771</v>
+      </c>
+      <c r="K18">
+        <v>6.8606093642497146E-2</v>
+      </c>
+      <c r="L18">
+        <v>7.5660606049161833E-2</v>
+      </c>
+      <c r="M18">
+        <v>3.7909727971832077E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.3640474853839511E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.6780048316655878E-3</v>
+      </c>
+      <c r="P18">
+        <v>8.2015988546594242E-4</v>
+      </c>
+      <c r="Q18">
+        <v>8.2791883023591256E-66</v>
+      </c>
+      <c r="R18">
+        <v>6.4111882526904959E-120</v>
+      </c>
+      <c r="S18">
+        <v>3.786957018010388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.42977239238164311</v>
+      </c>
+      <c r="D19">
+        <v>2.8833981553017458</v>
+      </c>
+      <c r="E19">
+        <v>0.1493487560487157</v>
+      </c>
+      <c r="F19">
+        <v>1.5881720756237051E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.440185605434747E-2</v>
+      </c>
+      <c r="H19">
+        <v>5.5058599606381833E-2</v>
+      </c>
+      <c r="I19">
+        <v>9.0824311327348667E-2</v>
+      </c>
+      <c r="J19">
+        <v>9.2166178366854104E-2</v>
+      </c>
+      <c r="K19">
+        <v>8.4175224587464598E-2</v>
+      </c>
+      <c r="L19">
+        <v>5.5707063100519649E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.4723727978215902E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.3217877831545139E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.6857270598284918E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.091490552134733E-3</v>
+      </c>
+      <c r="Q19">
+        <v>3.4806899401822839E-4</v>
+      </c>
+      <c r="R19">
+        <v>8.1106892403345726E-39</v>
+      </c>
+      <c r="S19">
+        <v>3.9348011499470008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3.3243555733971052E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.57981714048248423</v>
+      </c>
+      <c r="E20">
+        <v>3.136934036955159</v>
+      </c>
+      <c r="F20">
+        <v>9.3438885863100035E-2</v>
+      </c>
+      <c r="G20">
+        <v>8.8073663146275398E-3</v>
+      </c>
+      <c r="H20">
+        <v>4.0417307456041232E-2</v>
+      </c>
+      <c r="I20">
+        <v>5.1759058039075101E-2</v>
+      </c>
+      <c r="J20">
+        <v>8.8418011613770553E-2</v>
+      </c>
+      <c r="K20">
+        <v>8.7054453673734239E-2</v>
+      </c>
+      <c r="L20">
+        <v>6.3513977234933905E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.2561705446073773E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.0507126782121701E-2</v>
+      </c>
+      <c r="O20">
+        <v>4.8178955471365054E-3</v>
+      </c>
+      <c r="P20">
+        <v>5.6769038076806479E-4</v>
+      </c>
+      <c r="Q20">
+        <v>4.9440670856322039E-25</v>
+      </c>
+      <c r="R20">
+        <v>1.8254712133599469E-4</v>
+      </c>
+      <c r="S20">
+        <v>4.2221215584837593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.9211576075105059E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.388047963162683E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.93637122278097307</v>
+      </c>
+      <c r="F21">
+        <v>3.0826448667818029</v>
+      </c>
+      <c r="G21">
+        <v>3.4700215925132123E-2</v>
+      </c>
+      <c r="H21">
+        <v>4.3943102750903559E-2</v>
+      </c>
+      <c r="I21">
+        <v>6.178984332597607E-2</v>
+      </c>
+      <c r="J21">
+        <v>9.3150741403572462E-2</v>
+      </c>
+      <c r="K21">
+        <v>7.3940072683697775E-2</v>
+      </c>
+      <c r="L21">
+        <v>8.0979516061389298E-2</v>
+      </c>
+      <c r="M21">
+        <v>4.2694929431135828E-2</v>
+      </c>
+      <c r="N21">
+        <v>2.429991830859142E-2</v>
+      </c>
+      <c r="O21">
+        <v>5.1008428416876497E-3</v>
+      </c>
+      <c r="P21">
+        <v>8.1637920138557531E-4</v>
+      </c>
+      <c r="Q21">
+        <v>6.2181185234515508E-33</v>
+      </c>
+      <c r="R21">
+        <v>1.710464480111348E-70</v>
+      </c>
+      <c r="S21">
+        <v>4.5235237072029788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1.9338679667427552E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.1515382233978201E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.3647758092654294E-3</v>
+      </c>
+      <c r="F22">
+        <v>0.35489031466961779</v>
+      </c>
+      <c r="G22">
+        <v>0.21408985764366739</v>
+      </c>
+      <c r="H22">
+        <v>2.890785534517951E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.234214207316906E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.8697791938395129E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.7848163210417069E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.1105789518207688E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.1115652722463501E-2</v>
+      </c>
+      <c r="N22">
+        <v>7.9121685283602538E-3</v>
+      </c>
+      <c r="O22">
+        <v>6.1200611584953277E-4</v>
+      </c>
+      <c r="P22">
+        <v>1.1215690723409271E-3</v>
+      </c>
+      <c r="Q22">
+        <v>1.771544027181711E-4</v>
+      </c>
+      <c r="R22">
+        <v>1.2199347912511389E-47</v>
+      </c>
+      <c r="S22">
+        <v>0.74403930295105736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2.8093222076948181E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.6732750321055559E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.2679535760657381E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.1123730944204803</v>
+      </c>
+      <c r="G23">
+        <v>0.16012107814435489</v>
+      </c>
+      <c r="H23">
+        <v>0.1208250900185795</v>
+      </c>
+      <c r="I23">
+        <v>2.527503919485834E-2</v>
+      </c>
+      <c r="J23">
+        <v>3.5404881255072858E-2</v>
+      </c>
+      <c r="K23">
+        <v>4.0605944109101122E-2</v>
+      </c>
+      <c r="L23">
+        <v>3.3892785988022707E-2</v>
+      </c>
+      <c r="M23">
+        <v>8.6048625451879447E-3</v>
+      </c>
+      <c r="N23">
+        <v>1.3528339894642961E-2</v>
+      </c>
+      <c r="O23">
+        <v>4.2576694444910529E-3</v>
+      </c>
+      <c r="P23">
+        <v>2.1575257714226011E-3</v>
+      </c>
+      <c r="Q23">
+        <v>4.6348064252615121E-4</v>
+      </c>
+      <c r="R23">
+        <v>1.28741966358586E-3</v>
+      </c>
+      <c r="S23">
+        <v>0.6863027192509874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6.989980680686135E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.32432855629767582</v>
+      </c>
+      <c r="E24">
+        <v>0.20100564520604991</v>
+      </c>
+      <c r="F24">
+        <v>0.12295168616251741</v>
+      </c>
+      <c r="G24">
+        <v>3.3662722185332943E-2</v>
+      </c>
+      <c r="H24">
+        <v>7.9111069848887161E-2</v>
+      </c>
+      <c r="I24">
+        <v>8.757505330536608E-2</v>
+      </c>
+      <c r="J24">
+        <v>6.4529322448715856E-2</v>
+      </c>
+      <c r="K24">
+        <v>6.7518288970837198E-2</v>
+      </c>
+      <c r="L24">
+        <v>3.3327488716731503E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.6205774213713409E-2</v>
+      </c>
+      <c r="N24">
+        <v>3.7617773391584188E-3</v>
+      </c>
+      <c r="O24">
+        <v>6.0565953437829254E-3</v>
+      </c>
+      <c r="P24">
+        <v>4.0547008429663099E-4</v>
+      </c>
+      <c r="Q24">
+        <v>1.656984296893486E-48</v>
+      </c>
+      <c r="R24">
+        <v>3.1176279327542728E-55</v>
+      </c>
+      <c r="S24">
+        <v>1.1203392569299271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.1255724111218435</v>
+      </c>
+      <c r="D25">
+        <v>0.20557879085834599</v>
+      </c>
+      <c r="E25">
+        <v>0.14095062030648101</v>
+      </c>
+      <c r="F25">
+        <v>6.8753711755518254E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.384997863909666E-2</v>
+      </c>
+      <c r="H25">
+        <v>5.3857904614855262E-2</v>
+      </c>
+      <c r="I25">
+        <v>9.1877842737100701E-2</v>
+      </c>
+      <c r="J25">
+        <v>7.2990156206018272E-2</v>
+      </c>
+      <c r="K25">
+        <v>7.8059823320469832E-2</v>
+      </c>
+      <c r="L25">
+        <v>3.54013696562668E-2</v>
+      </c>
+      <c r="M25">
+        <v>5.0452265931402347E-3</v>
+      </c>
+      <c r="N25">
+        <v>1.100904404672466E-2</v>
+      </c>
+      <c r="O25">
+        <v>6.5920498288817128E-4</v>
+      </c>
+      <c r="P25">
+        <v>1.918280430819387E-3</v>
+      </c>
+      <c r="Q25">
+        <v>1.8477846210938889E-123</v>
+      </c>
+      <c r="R25">
+        <v>9.7161748116382852E-67</v>
+      </c>
+      <c r="S25">
+        <v>0.90552436526956881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>3.8102635023177518E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.11148773480433601</v>
+      </c>
+      <c r="E26">
+        <v>8.2936415285564724E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.32057406613519862</v>
+      </c>
+      <c r="G26">
+        <v>6.4981760294970442E-3</v>
+      </c>
+      <c r="H26">
+        <v>2.6039409343932559E-2</v>
+      </c>
+      <c r="I26">
+        <v>3.111252281985586E-2</v>
+      </c>
+      <c r="J26">
+        <v>4.4702151402190068E-2</v>
+      </c>
+      <c r="K26">
+        <v>9.2428321884422238E-2</v>
+      </c>
+      <c r="L26">
+        <v>3.1287543788882502E-2</v>
+      </c>
+      <c r="M26">
+        <v>3.3666028079219687E-2</v>
+      </c>
+      <c r="N26">
+        <v>8.8678309503271834E-3</v>
+      </c>
+      <c r="O26">
+        <v>6.4612515027202399E-3</v>
+      </c>
+      <c r="P26">
+        <v>4.4276217703901997E-4</v>
+      </c>
+      <c r="Q26">
+        <v>4.8205415209988044E-68</v>
+      </c>
+      <c r="R26">
+        <v>2.4070171359644669E-92</v>
+      </c>
+      <c r="S26">
+        <v>0.8346068492263633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.29760722234146281</v>
+      </c>
+      <c r="D27">
+        <v>0.2336505168701454</v>
+      </c>
+      <c r="E27">
+        <v>0.1420536411846573</v>
+      </c>
+      <c r="F27">
+        <v>0.48568212679552192</v>
+      </c>
+      <c r="G27">
+        <v>4.5336100480368423E-3</v>
+      </c>
+      <c r="H27">
+        <v>3.0891472025795241E-2</v>
+      </c>
+      <c r="I27">
+        <v>7.211861950817415E-2</v>
+      </c>
+      <c r="J27">
+        <v>6.6155554064390831E-2</v>
+      </c>
+      <c r="K27">
+        <v>5.9619040115842861E-2</v>
+      </c>
+      <c r="L27">
+        <v>3.4089603045867112E-2</v>
+      </c>
+      <c r="M27">
+        <v>4.0571894408269298E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.7676178398765272E-2</v>
+      </c>
+      <c r="O27">
+        <v>3.8090653119829199E-3</v>
+      </c>
+      <c r="P27">
+        <v>1.570848969656884E-3</v>
+      </c>
+      <c r="Q27">
+        <v>6.2193482266434091E-134</v>
+      </c>
+      <c r="R27">
+        <v>3.2789246989976358E-72</v>
+      </c>
+      <c r="S27">
+        <v>1.4900293930885691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>6.910396171488048E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.36657359521869409</v>
+      </c>
+      <c r="E28">
+        <v>0.43166644523840719</v>
+      </c>
+      <c r="F28">
+        <v>0.4421039480720802</v>
+      </c>
+      <c r="G28">
+        <v>4.5104244110416988E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.527209912815068E-2</v>
+      </c>
+      <c r="I28">
+        <v>5.1001235705329807E-2</v>
+      </c>
+      <c r="J28">
+        <v>5.327571742214661E-2</v>
+      </c>
+      <c r="K28">
+        <v>6.4285803662630356E-2</v>
+      </c>
+      <c r="L28">
+        <v>8.3805291342181884E-2</v>
+      </c>
+      <c r="M28">
+        <v>4.1245550321110921E-2</v>
+      </c>
+      <c r="N28">
+        <v>2.0979105082568492E-2</v>
+      </c>
+      <c r="O28">
+        <v>5.3018686411196794E-3</v>
+      </c>
+      <c r="P28">
+        <v>8.4262870776538965E-24</v>
+      </c>
+      <c r="Q28">
+        <v>1.239760834880653E-117</v>
+      </c>
+      <c r="R28">
+        <v>5.6515175852189955E-78</v>
+      </c>
+      <c r="S28">
+        <v>1.6491250459603419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0.1959921477048174</v>
+      </c>
+      <c r="D29">
+        <v>0.32604312661269569</v>
+      </c>
+      <c r="E29">
+        <v>0.2673986332829027</v>
+      </c>
+      <c r="F29">
+        <v>0.29106069882644309</v>
+      </c>
+      <c r="G29">
+        <v>5.2046540748308008E-3</v>
+      </c>
+      <c r="H29">
+        <v>5.6456546886265349E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.567273669573409E-2</v>
+      </c>
+      <c r="J29">
+        <v>4.5312944785225358E-2</v>
+      </c>
+      <c r="K29">
+        <v>5.5575470804328307E-2</v>
+      </c>
+      <c r="L29">
+        <v>3.8664866349285412E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.3009203298592631E-2</v>
+      </c>
+      <c r="N29">
+        <v>3.5460584654840789E-2</v>
+      </c>
+      <c r="O29">
+        <v>1.0110779613879829E-2</v>
+      </c>
+      <c r="P29">
+        <v>1.0929824951791031E-31</v>
+      </c>
+      <c r="Q29">
+        <v>7.8280230710847415E-4</v>
+      </c>
+      <c r="R29">
+        <v>7.6335673948838847E-4</v>
+      </c>
+      <c r="S29">
+        <v>1.3875085526364379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>7.5972984802825272E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.8602769485511567E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.8714511019427132E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.12990997494626699</v>
+      </c>
+      <c r="G30">
+        <v>1.1102297754359889E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.686256146154726E-3</v>
+      </c>
+      <c r="I30">
+        <v>1.730637210585953E-2</v>
+      </c>
+      <c r="J30">
+        <v>4.99612157972898E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.0811421134089869E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.6698956931723252E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.298451255317854E-2</v>
+      </c>
+      <c r="N30">
+        <v>6.5700299040438708E-3</v>
+      </c>
+      <c r="O30">
+        <v>2.1659368127921449E-2</v>
+      </c>
+      <c r="P30">
+        <v>1.0857401684907311E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.424874353596472E-67</v>
+      </c>
+      <c r="R30">
+        <v>2.1218483487896711E-37</v>
+      </c>
+      <c r="S30">
+        <v>0.45283807239355922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>1.7678296380552799E-3</v>
+      </c>
+      <c r="D31">
+        <v>2.1314199835752619E-2</v>
+      </c>
+      <c r="E31">
+        <v>8.2646673706627208E-3</v>
+      </c>
+      <c r="F31">
+        <v>5.76278418323745E-32</v>
+      </c>
+      <c r="G31">
+        <v>1.7597953504206671E-3</v>
+      </c>
+      <c r="H31">
+        <v>1.721513663728617E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.126435344878395E-2</v>
+      </c>
+      <c r="J31">
+        <v>4.9610228954506874E-3</v>
+      </c>
+      <c r="K31">
+        <v>5.0142834681377027E-3</v>
+      </c>
+      <c r="L31">
+        <v>8.0773463321032017E-3</v>
+      </c>
+      <c r="M31">
+        <v>1.84765305064433E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.438431281613846E-2</v>
+      </c>
+      <c r="O31">
+        <v>7.9349765621063231E-3</v>
+      </c>
+      <c r="P31">
+        <v>1.7276083657820442E-2</v>
+      </c>
+      <c r="Q31">
+        <v>1.112328267023409E-2</v>
+      </c>
+      <c r="R31">
+        <v>3.4568347466495028E-126</v>
+      </c>
+      <c r="S31">
+        <v>0.11671132076003909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1.2875872987034851E-28</v>
+      </c>
+      <c r="D32">
+        <v>5.1197134411474511E-26</v>
+      </c>
+      <c r="E32">
+        <v>1.93278039132607E-40</v>
+      </c>
+      <c r="F32">
+        <v>7.6125624597251293E-3</v>
+      </c>
+      <c r="G32">
+        <v>2.635723744273928E-22</v>
+      </c>
+      <c r="H32">
+        <v>1.698823516327025E-24</v>
+      </c>
+      <c r="I32">
+        <v>1.2607137626610981E-26</v>
+      </c>
+      <c r="J32">
+        <v>7.6355688728887193E-3</v>
+      </c>
+      <c r="K32">
+        <v>7.8635172937668116E-3</v>
+      </c>
+      <c r="L32">
+        <v>2.1186276244693991E-2</v>
+      </c>
+      <c r="M32">
+        <v>3.5262591426905639E-2</v>
+      </c>
+      <c r="N32">
+        <v>2.1459115172689239E-2</v>
+      </c>
+      <c r="O32">
+        <v>7.7428048820677052E-3</v>
+      </c>
+      <c r="P32">
+        <v>8.0128369157148483E-3</v>
+      </c>
+      <c r="Q32">
+        <v>7.9128733340221198E-3</v>
+      </c>
+      <c r="R32">
+        <v>2.138264542733951E-2</v>
+      </c>
+      <c r="S32">
+        <v>0.14607079202981371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2.8306509563813391E-94</v>
+      </c>
+      <c r="D33">
+        <v>2.1185245322224509E-2</v>
+      </c>
+      <c r="E33">
+        <v>8.4838970237938475E-42</v>
+      </c>
+      <c r="F33">
+        <v>2.1301152759705309E-2</v>
+      </c>
+      <c r="G33">
+        <v>4.899460784065316E-36</v>
+      </c>
+      <c r="H33">
+        <v>7.6008686027653422E-3</v>
+      </c>
+      <c r="I33">
+        <v>9.7904749368341114E-69</v>
+      </c>
+      <c r="J33">
+        <v>2.2358282563459869E-60</v>
+      </c>
+      <c r="K33">
+        <v>1.43997322732179E-48</v>
+      </c>
+      <c r="L33">
+        <v>8.5757145709643758E-60</v>
+      </c>
+      <c r="M33">
+        <v>4.7020903629745278E-42</v>
+      </c>
+      <c r="N33">
+        <v>1.600084401356449E-46</v>
+      </c>
+      <c r="O33">
+        <v>2.2109964277292008E-83</v>
+      </c>
+      <c r="P33">
+        <v>8.8583664290961209E-107</v>
+      </c>
+      <c r="Q33">
+        <v>1.0204312079054041E-80</v>
+      </c>
+      <c r="R33">
+        <v>6.614159163732521E-113</v>
+      </c>
+      <c r="S33">
+        <v>5.008726668469516E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3573,10 +5734,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1681" sqref="A2:XFD1681"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,7 +5802,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3700,7 +5861,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +5918,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3814,7 +5975,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +6032,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3928,7 +6089,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3985,7 +6146,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +6203,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4099,7 +6260,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +6317,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4213,7 +6374,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4270,7 +6431,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4327,7 +6488,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4384,7 +6545,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4441,7 +6602,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4498,7 +6659,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4554,9 +6715,924 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>8.2060452414479945E-92</v>
+      </c>
+      <c r="Q18">
+        <v>1.2058515015357481E-5</v>
+      </c>
+      <c r="R18">
+        <v>3.1643683381115669E-125</v>
+      </c>
+      <c r="S18">
+        <v>1.2058515015357481E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.3495557764948161E-5</v>
+      </c>
+      <c r="Q19">
+        <v>7.6459132509916683E-79</v>
+      </c>
+      <c r="R19">
+        <v>2.383920728025148E-65</v>
+      </c>
+      <c r="S19">
+        <v>1.3495557764948161E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.1923315252705411E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.2318134645341717E-3</v>
+      </c>
+      <c r="G20">
+        <v>9.1176433611057459E-3</v>
+      </c>
+      <c r="H20">
+        <v>2.691238323877979E-3</v>
+      </c>
+      <c r="I20">
+        <v>2.1786788107383558E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.0462226618607021E-3</v>
+      </c>
+      <c r="K20">
+        <v>2.075188008884744E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.1802683372336529E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.503002516614475E-3</v>
+      </c>
+      <c r="N20">
+        <v>7.8101632062781925E-9</v>
+      </c>
+      <c r="O20">
+        <v>1.1211695639008731E-18</v>
+      </c>
+      <c r="P20">
+        <v>2.7978031705087359E-53</v>
+      </c>
+      <c r="Q20">
+        <v>4.9580076999148522E-6</v>
+      </c>
+      <c r="R20">
+        <v>3.7771808267144161E-102</v>
+      </c>
+      <c r="S20">
+        <v>9.485955296712914E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1.1107287971945601E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.45949354246273022</v>
+      </c>
+      <c r="G21">
+        <v>0.5045159596853549</v>
+      </c>
+      <c r="H21">
+        <v>0.29599558329657438</v>
+      </c>
+      <c r="I21">
+        <v>0.27332548389167849</v>
+      </c>
+      <c r="J21">
+        <v>0.24741395726798421</v>
+      </c>
+      <c r="K21">
+        <v>0.26952036712049232</v>
+      </c>
+      <c r="L21">
+        <v>0.2080368220162829</v>
+      </c>
+      <c r="M21">
+        <v>0.11771070571497901</v>
+      </c>
+      <c r="N21">
+        <v>3.9335040272115283E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.089762018587739E-3</v>
+      </c>
+      <c r="P21">
+        <v>8.3469960156949892E-6</v>
+      </c>
+      <c r="Q21">
+        <v>2.8597282239804278E-6</v>
+      </c>
+      <c r="R21">
+        <v>1.8892612209825001E-31</v>
+      </c>
+      <c r="S21">
+        <v>2.427555718442965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1.9918380431156901E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.34003941510636593</v>
+      </c>
+      <c r="G22">
+        <v>0.90186816857995256</v>
+      </c>
+      <c r="H22">
+        <v>0.88174776454336834</v>
+      </c>
+      <c r="I22">
+        <v>0.72895182114460189</v>
+      </c>
+      <c r="J22">
+        <v>0.78210457445602621</v>
+      </c>
+      <c r="K22">
+        <v>0.57741985468084944</v>
+      </c>
+      <c r="L22">
+        <v>0.45277445226162499</v>
+      </c>
+      <c r="M22">
+        <v>0.33309825616878808</v>
+      </c>
+      <c r="N22">
+        <v>0.107772976586407</v>
+      </c>
+      <c r="O22">
+        <v>4.1123329851126093E-3</v>
+      </c>
+      <c r="P22">
+        <v>9.8611340668542582E-6</v>
+      </c>
+      <c r="Q22">
+        <v>1.326093870262973E-5</v>
+      </c>
+      <c r="R22">
+        <v>3.7431804801341289E-6</v>
+      </c>
+      <c r="S22">
+        <v>5.1298348621975034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.6132419340787381E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.30490558284861857</v>
+      </c>
+      <c r="G23">
+        <v>0.87557177592462887</v>
+      </c>
+      <c r="H23">
+        <v>1.5041578266837801</v>
+      </c>
+      <c r="I23">
+        <v>1.0661372595214349</v>
+      </c>
+      <c r="J23">
+        <v>1.013622190286906</v>
+      </c>
+      <c r="K23">
+        <v>0.91567216708696908</v>
+      </c>
+      <c r="L23">
+        <v>0.62854238677182583</v>
+      </c>
+      <c r="M23">
+        <v>0.49781357745041532</v>
+      </c>
+      <c r="N23">
+        <v>0.16196388317553459</v>
+      </c>
+      <c r="O23">
+        <v>5.595701464079457E-3</v>
+      </c>
+      <c r="P23">
+        <v>1.606746272092466E-5</v>
+      </c>
+      <c r="Q23">
+        <v>1.0118260764952541E-5</v>
+      </c>
+      <c r="R23">
+        <v>3.01442534314934E-6</v>
+      </c>
+      <c r="S23">
+        <v>7.0001439707038093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2.932895016276613E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.16321389398436151</v>
+      </c>
+      <c r="G24">
+        <v>0.60094501502239772</v>
+      </c>
+      <c r="H24">
+        <v>1.0107916519512929</v>
+      </c>
+      <c r="I24">
+        <v>1.310253351690325</v>
+      </c>
+      <c r="J24">
+        <v>1.118952393922775</v>
+      </c>
+      <c r="K24">
+        <v>0.98055291478198181</v>
+      </c>
+      <c r="L24">
+        <v>0.78379497956870459</v>
+      </c>
+      <c r="M24">
+        <v>0.45552896532015102</v>
+      </c>
+      <c r="N24">
+        <v>0.18716985059278249</v>
+      </c>
+      <c r="O24">
+        <v>5.1899525985230144E-3</v>
+      </c>
+      <c r="P24">
+        <v>1.6379556286167829E-5</v>
+      </c>
+      <c r="Q24">
+        <v>4.1010085071125459E-6</v>
+      </c>
+      <c r="R24">
+        <v>3.4947898021319551E-6</v>
+      </c>
+      <c r="S24">
+        <v>6.6457458949506574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.756325694885498E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.31701000808243579</v>
+      </c>
+      <c r="G25">
+        <v>0.48543326712286139</v>
+      </c>
+      <c r="H25">
+        <v>0.92450799884573509</v>
+      </c>
+      <c r="I25">
+        <v>0.98060850048779891</v>
+      </c>
+      <c r="J25">
+        <v>1.3195127909002211</v>
+      </c>
+      <c r="K25">
+        <v>1.2552529709938951</v>
+      </c>
+      <c r="L25">
+        <v>0.85047019809399371</v>
+      </c>
+      <c r="M25">
+        <v>0.59665107754703428</v>
+      </c>
+      <c r="N25">
+        <v>0.1671873553087109</v>
+      </c>
+      <c r="O25">
+        <v>3.5817262929338932E-3</v>
+      </c>
+      <c r="P25">
+        <v>1.2298852979232539E-5</v>
+      </c>
+      <c r="Q25">
+        <v>9.1351283341708809E-6</v>
+      </c>
+      <c r="R25">
+        <v>6.020974158389122E-6</v>
+      </c>
+      <c r="S25">
+        <v>6.9178066055799468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1.9407028643739031E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.19360114745335849</v>
+      </c>
+      <c r="G26">
+        <v>0.5587096912159808</v>
+      </c>
+      <c r="H26">
+        <v>0.89409893336109492</v>
+      </c>
+      <c r="I26">
+        <v>1.04459257329563</v>
+      </c>
+      <c r="J26">
+        <v>1.088583875978232</v>
+      </c>
+      <c r="K26">
+        <v>1.304111462654441</v>
+      </c>
+      <c r="L26">
+        <v>1.025914173821989</v>
+      </c>
+      <c r="M26">
+        <v>0.71045888635190191</v>
+      </c>
+      <c r="N26">
+        <v>0.17357678727394071</v>
+      </c>
+      <c r="O26">
+        <v>5.1355496773960209E-3</v>
+      </c>
+      <c r="P26">
+        <v>1.4362616105122531E-5</v>
+      </c>
+      <c r="Q26">
+        <v>1.0272156668633031E-5</v>
+      </c>
+      <c r="R26">
+        <v>1.2950389341679861E-5</v>
+      </c>
+      <c r="S26">
+        <v>7.018227694889819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2.5351130924388319E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.23693102770859151</v>
+      </c>
+      <c r="G27">
+        <v>0.37281726034165191</v>
+      </c>
+      <c r="H27">
+        <v>0.65804702484925337</v>
+      </c>
+      <c r="I27">
+        <v>0.83572699064083089</v>
+      </c>
+      <c r="J27">
+        <v>0.89472660914560087</v>
+      </c>
+      <c r="K27">
+        <v>0.90513245421060673</v>
+      </c>
+      <c r="L27">
+        <v>0.86489605086954491</v>
+      </c>
+      <c r="M27">
+        <v>0.53678384166055959</v>
+      </c>
+      <c r="N27">
+        <v>0.192347228772976</v>
+      </c>
+      <c r="O27">
+        <v>4.0048305296236392E-3</v>
+      </c>
+      <c r="P27">
+        <v>1.6281037030972492E-5</v>
+      </c>
+      <c r="Q27">
+        <v>1.082436104787482E-5</v>
+      </c>
+      <c r="R27">
+        <v>6.091723387356965E-6</v>
+      </c>
+      <c r="S27">
+        <v>5.5267976467750941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.591609978481231E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.16755669397408349</v>
+      </c>
+      <c r="G28">
+        <v>0.29340181543577809</v>
+      </c>
+      <c r="H28">
+        <v>0.62683925644619087</v>
+      </c>
+      <c r="I28">
+        <v>0.7237677670522995</v>
+      </c>
+      <c r="J28">
+        <v>0.73392738117287526</v>
+      </c>
+      <c r="K28">
+        <v>0.97179809731774636</v>
+      </c>
+      <c r="L28">
+        <v>0.91774617169503714</v>
+      </c>
+      <c r="M28">
+        <v>0.67178765315642797</v>
+      </c>
+      <c r="N28">
+        <v>0.22951007890720451</v>
+      </c>
+      <c r="O28">
+        <v>4.5252625444321534E-3</v>
+      </c>
+      <c r="P28">
+        <v>1.180797212969506E-5</v>
+      </c>
+      <c r="Q28">
+        <v>1.1822664543445789E-5</v>
+      </c>
+      <c r="R28">
+        <v>1.01613164687284E-5</v>
+      </c>
+      <c r="S28">
+        <v>5.3668100694400307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2.8965974338564279E-2</v>
+      </c>
+      <c r="F29">
+        <v>8.1675365107824263E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.1434003653856937</v>
+      </c>
+      <c r="H29">
+        <v>0.26908192030217282</v>
+      </c>
+      <c r="I29">
+        <v>0.37058504877084592</v>
+      </c>
+      <c r="J29">
+        <v>0.34026111455724523</v>
+      </c>
+      <c r="K29">
+        <v>0.42535028213773868</v>
+      </c>
+      <c r="L29">
+        <v>0.32851296472999841</v>
+      </c>
+      <c r="M29">
+        <v>0.29345631026973162</v>
+      </c>
+      <c r="N29">
+        <v>0.1293111439016281</v>
+      </c>
+      <c r="O29">
+        <v>3.0965093972670152E-3</v>
+      </c>
+      <c r="P29">
+        <v>1.349783035371988E-5</v>
+      </c>
+      <c r="Q29">
+        <v>6.587399251519834E-6</v>
+      </c>
+      <c r="R29">
+        <v>6.6571675591286492E-6</v>
+      </c>
+      <c r="S29">
+        <v>2.4137237412958741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1.195791986088961E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.3543590424388459E-3</v>
+      </c>
+      <c r="G30">
+        <v>6.9701235158168189E-3</v>
+      </c>
+      <c r="H30">
+        <v>1.267376781251453E-2</v>
+      </c>
+      <c r="I30">
+        <v>1.3829010167496179E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.591492289577668E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.6826957705694319E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.6086765018394102E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.184273362341374E-2</v>
+      </c>
+      <c r="N30">
+        <v>6.4375049737339079E-3</v>
+      </c>
+      <c r="O30">
+        <v>1.2988912002514721E-4</v>
+      </c>
+      <c r="P30">
+        <v>2.030195801259054E-5</v>
+      </c>
+      <c r="Q30">
+        <v>8.2610215574613784E-6</v>
+      </c>
+      <c r="R30">
+        <v>1.483981821636681E-5</v>
+      </c>
+      <c r="S30">
+        <v>0.1033052286591797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>7.602995211457355E-6</v>
+      </c>
+      <c r="D31">
+        <v>3.3632675385513442E-6</v>
+      </c>
+      <c r="E31">
+        <v>7.6485529562267413E-6</v>
+      </c>
+      <c r="F31">
+        <v>2.276215322644046E-5</v>
+      </c>
+      <c r="G31">
+        <v>3.1493335121439779E-5</v>
+      </c>
+      <c r="H31">
+        <v>7.8930841022094474E-5</v>
+      </c>
+      <c r="I31">
+        <v>7.2421284181055644E-5</v>
+      </c>
+      <c r="J31">
+        <v>2.9174820295804419E-5</v>
+      </c>
+      <c r="K31">
+        <v>6.6187373191408909E-5</v>
+      </c>
+      <c r="L31">
+        <v>5.9569323761485908E-5</v>
+      </c>
+      <c r="M31">
+        <v>7.7071349967688558E-5</v>
+      </c>
+      <c r="N31">
+        <v>5.3068774755054708E-5</v>
+      </c>
+      <c r="O31">
+        <v>4.6603011672983138E-5</v>
+      </c>
+      <c r="P31">
+        <v>1.41633235369618E-5</v>
+      </c>
+      <c r="Q31">
+        <v>2.490662050944626E-5</v>
+      </c>
+      <c r="R31">
+        <v>1.191090375257413E-5</v>
+      </c>
+      <c r="S31">
+        <v>6.0687793070067367E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>5.7886384028014932E-55</v>
+      </c>
+      <c r="D32">
+        <v>7.8878514941672328E-42</v>
+      </c>
+      <c r="E32">
+        <v>2.5483041238549718E-6</v>
+      </c>
+      <c r="F32">
+        <v>2.6064819095335219E-5</v>
+      </c>
+      <c r="G32">
+        <v>1.6803620529205902E-5</v>
+      </c>
+      <c r="H32">
+        <v>2.1244673880160619E-5</v>
+      </c>
+      <c r="I32">
+        <v>3.5726760291416863E-5</v>
+      </c>
+      <c r="J32">
+        <v>4.0237703289940033E-5</v>
+      </c>
+      <c r="K32">
+        <v>3.5640193483851463E-5</v>
+      </c>
+      <c r="L32">
+        <v>3.0976925222088772E-5</v>
+      </c>
+      <c r="M32">
+        <v>2.1305338212640379E-5</v>
+      </c>
+      <c r="N32">
+        <v>4.497094136823173E-5</v>
+      </c>
+      <c r="O32">
+        <v>2.6136837287911721E-5</v>
+      </c>
+      <c r="P32">
+        <v>1.6826620345055789E-5</v>
+      </c>
+      <c r="Q32">
+        <v>1.6651432203896709E-5</v>
+      </c>
+      <c r="R32">
+        <v>2.6082281328611461E-5</v>
+      </c>
+      <c r="S32">
+        <v>3.612164506622016E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2.3572127101661981E-141</v>
+      </c>
+      <c r="D33">
+        <v>9.0687167409415162E-97</v>
+      </c>
+      <c r="E33">
+        <v>1.186371221506312E-89</v>
+      </c>
+      <c r="F33">
+        <v>9.3993407642334476E-22</v>
+      </c>
+      <c r="G33">
+        <v>4.6600045172900577E-5</v>
+      </c>
+      <c r="H33">
+        <v>4.6966401121414998E-5</v>
+      </c>
+      <c r="I33">
+        <v>4.6931608219698722E-5</v>
+      </c>
+      <c r="J33">
+        <v>8.4218404379323794E-5</v>
+      </c>
+      <c r="K33">
+        <v>2.7778816787032399E-5</v>
+      </c>
+      <c r="L33">
+        <v>1.0329437771122591E-5</v>
+      </c>
+      <c r="M33">
+        <v>1.068036175255475E-5</v>
+      </c>
+      <c r="N33">
+        <v>7.2634182602282728E-75</v>
+      </c>
+      <c r="O33">
+        <v>1.1007397129367039E-65</v>
+      </c>
+      <c r="P33">
+        <v>1.0283167122541059E-5</v>
+      </c>
+      <c r="Q33">
+        <v>5.1690299352079659E-49</v>
+      </c>
+      <c r="R33">
+        <v>8.2804050872286741E-43</v>
+      </c>
+      <c r="S33">
+        <v>2.837882423265888E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4567,10 +7643,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,7 +7711,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4694,7 +7770,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4751,7 +7827,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +7884,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4865,7 +7941,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4922,7 +7998,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4979,7 +8055,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5036,7 +8112,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5093,7 +8169,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +8226,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5207,7 +8283,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5264,7 +8340,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5321,7 +8397,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5378,7 +8454,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5435,7 +8511,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5492,7 +8568,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5548,9 +8624,924 @@
         <v>2.7527243093054228</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.52127275350708424</v>
+      </c>
+      <c r="D18">
+        <v>0.22732680109267719</v>
+      </c>
+      <c r="E18">
+        <v>0.10601140205810609</v>
+      </c>
+      <c r="F18">
+        <v>7.5612392843606602E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.13804734473337571</v>
+      </c>
+      <c r="H18">
+        <v>0.25722757641085781</v>
+      </c>
+      <c r="I18">
+        <v>0.39731210527333721</v>
+      </c>
+      <c r="J18">
+        <v>0.37094272042864979</v>
+      </c>
+      <c r="K18">
+        <v>0.24058643694820739</v>
+      </c>
+      <c r="L18">
+        <v>0.16371688091134701</v>
+      </c>
+      <c r="M18">
+        <v>0.19444646177005129</v>
+      </c>
+      <c r="N18">
+        <v>0.1652917766967896</v>
+      </c>
+      <c r="O18">
+        <v>0.1201096899852324</v>
+      </c>
+      <c r="P18">
+        <v>0.1218419476345582</v>
+      </c>
+      <c r="Q18">
+        <v>7.3593870470585895E-2</v>
+      </c>
+      <c r="R18">
+        <v>4.3115679814978818E-2</v>
+      </c>
+      <c r="S18">
+        <v>3.216455840579445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.2475241274745569</v>
+      </c>
+      <c r="D19">
+        <v>0.93924097610208812</v>
+      </c>
+      <c r="E19">
+        <v>0.31368810232557182</v>
+      </c>
+      <c r="F19">
+        <v>8.4016480214132286E-2</v>
+      </c>
+      <c r="G19">
+        <v>7.6846374737010462E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.18607624103554071</v>
+      </c>
+      <c r="I19">
+        <v>0.3036340430670823</v>
+      </c>
+      <c r="J19">
+        <v>0.3669709096086059</v>
+      </c>
+      <c r="K19">
+        <v>0.29733541820261872</v>
+      </c>
+      <c r="L19">
+        <v>0.13724748186107361</v>
+      </c>
+      <c r="M19">
+        <v>0.1079949801568731</v>
+      </c>
+      <c r="N19">
+        <v>0.1139383613798501</v>
+      </c>
+      <c r="O19">
+        <v>0.115832641609561</v>
+      </c>
+      <c r="P19">
+        <v>0.1019022646538178</v>
+      </c>
+      <c r="Q19">
+        <v>4.6537606111643592E-2</v>
+      </c>
+      <c r="R19">
+        <v>4.2792064315168868E-2</v>
+      </c>
+      <c r="S19">
+        <v>3.481578072855195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>7.2676584896469401E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.38924765227481889</v>
+      </c>
+      <c r="E20">
+        <v>1.254735682838594</v>
+      </c>
+      <c r="F20">
+        <v>0.1893653703357463</v>
+      </c>
+      <c r="G20">
+        <v>0.13526818547600261</v>
+      </c>
+      <c r="H20">
+        <v>0.13957529612299741</v>
+      </c>
+      <c r="I20">
+        <v>0.2153428409859503</v>
+      </c>
+      <c r="J20">
+        <v>0.28015838824485112</v>
+      </c>
+      <c r="K20">
+        <v>0.30987664063714598</v>
+      </c>
+      <c r="L20">
+        <v>0.18912754317902111</v>
+      </c>
+      <c r="M20">
+        <v>0.1220948824398773</v>
+      </c>
+      <c r="N20">
+        <v>7.7303315966988195E-2</v>
+      </c>
+      <c r="O20">
+        <v>5.938240615315378E-2</v>
+      </c>
+      <c r="P20">
+        <v>7.2414972437841368E-2</v>
+      </c>
+      <c r="Q20">
+        <v>4.9508134126393939E-2</v>
+      </c>
+      <c r="R20">
+        <v>5.3051689309921622E-2</v>
+      </c>
+      <c r="S20">
+        <v>3.609129585425773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3.8314157712273512E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.1215043045713113</v>
+      </c>
+      <c r="E21">
+        <v>0.51521825652925068</v>
+      </c>
+      <c r="F21">
+        <v>1.4919003170881651</v>
+      </c>
+      <c r="G21">
+        <v>0.39006711722939741</v>
+      </c>
+      <c r="H21">
+        <v>0.22260075215864419</v>
+      </c>
+      <c r="I21">
+        <v>0.18841924031640919</v>
+      </c>
+      <c r="J21">
+        <v>0.24544800423878571</v>
+      </c>
+      <c r="K21">
+        <v>0.24076412118340709</v>
+      </c>
+      <c r="L21">
+        <v>0.2057163277755403</v>
+      </c>
+      <c r="M21">
+        <v>9.1262951112476412E-2</v>
+      </c>
+      <c r="N21">
+        <v>4.6143781817820313E-2</v>
+      </c>
+      <c r="O21">
+        <v>3.7021223971668377E-2</v>
+      </c>
+      <c r="P21">
+        <v>3.9735518125841862E-2</v>
+      </c>
+      <c r="Q21">
+        <v>2.2820356716137819E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.8867808357898391E-2</v>
+      </c>
+      <c r="S21">
+        <v>3.9158042389050278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5.8743278401353689E-2</v>
+      </c>
+      <c r="D22">
+        <v>7.5376221711332653E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.10241124340061609</v>
+      </c>
+      <c r="F22">
+        <v>0.63676870711956846</v>
+      </c>
+      <c r="G22">
+        <v>1.1121226737823959</v>
+      </c>
+      <c r="H22">
+        <v>0.53637949742283875</v>
+      </c>
+      <c r="I22">
+        <v>0.42481934510779701</v>
+      </c>
+      <c r="J22">
+        <v>0.3070160592461974</v>
+      </c>
+      <c r="K22">
+        <v>0.2286939939754481</v>
+      </c>
+      <c r="L22">
+        <v>0.25623189854559669</v>
+      </c>
+      <c r="M22">
+        <v>0.15291470072901189</v>
+      </c>
+      <c r="N22">
+        <v>0.1031124353176105</v>
+      </c>
+      <c r="O22">
+        <v>4.5408126543153633E-2</v>
+      </c>
+      <c r="P22">
+        <v>4.1138245835403882E-2</v>
+      </c>
+      <c r="Q22">
+        <v>4.3385118806527588E-2</v>
+      </c>
+      <c r="R22">
+        <v>4.2563883770753437E-2</v>
+      </c>
+      <c r="S22">
+        <v>4.1670854297156046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.12389006485698741</v>
+      </c>
+      <c r="D23">
+        <v>6.4881371133916663E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.3230226282667867E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.20092506709639149</v>
+      </c>
+      <c r="G23">
+        <v>0.60622255915599232</v>
+      </c>
+      <c r="H23">
+        <v>0.94388069018452447</v>
+      </c>
+      <c r="I23">
+        <v>0.71733025581207399</v>
+      </c>
+      <c r="J23">
+        <v>0.52261047184125886</v>
+      </c>
+      <c r="K23">
+        <v>0.33470341656387348</v>
+      </c>
+      <c r="L23">
+        <v>0.29113867889213663</v>
+      </c>
+      <c r="M23">
+        <v>0.24183710548042159</v>
+      </c>
+      <c r="N23">
+        <v>0.13202949367234021</v>
+      </c>
+      <c r="O23">
+        <v>5.693545861437483E-2</v>
+      </c>
+      <c r="P23">
+        <v>5.003259558458583E-2</v>
+      </c>
+      <c r="Q23">
+        <v>3.019290192671677E-2</v>
+      </c>
+      <c r="R23">
+        <v>1.895421274736411E-2</v>
+      </c>
+      <c r="S23">
+        <v>4.3887945698456274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.16726597176659611</v>
+      </c>
+      <c r="D24">
+        <v>0.11976879486529041</v>
+      </c>
+      <c r="E24">
+        <v>0.16579233964791271</v>
+      </c>
+      <c r="F24">
+        <v>0.12760559815308711</v>
+      </c>
+      <c r="G24">
+        <v>0.36488352474367658</v>
+      </c>
+      <c r="H24">
+        <v>0.65452516224229096</v>
+      </c>
+      <c r="I24">
+        <v>1.0971550808887069</v>
+      </c>
+      <c r="J24">
+        <v>0.85227481272397254</v>
+      </c>
+      <c r="K24">
+        <v>0.5137139904721777</v>
+      </c>
+      <c r="L24">
+        <v>0.37708662252240549</v>
+      </c>
+      <c r="M24">
+        <v>0.37585841692914662</v>
+      </c>
+      <c r="N24">
+        <v>0.27620372388005832</v>
+      </c>
+      <c r="O24">
+        <v>0.1383735068625247</v>
+      </c>
+      <c r="P24">
+        <v>0.11908956806777279</v>
+      </c>
+      <c r="Q24">
+        <v>5.7815220694533168E-2</v>
+      </c>
+      <c r="R24">
+        <v>6.6909306451953879E-2</v>
+      </c>
+      <c r="S24">
+        <v>5.4743216409121054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.16515001019360109</v>
+      </c>
+      <c r="D25">
+        <v>0.19611276543274231</v>
+      </c>
+      <c r="E25">
+        <v>0.13461886397097569</v>
+      </c>
+      <c r="F25">
+        <v>9.6210277127228266E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.24752071837979719</v>
+      </c>
+      <c r="H25">
+        <v>0.53006247482813917</v>
+      </c>
+      <c r="I25">
+        <v>0.88662902861420201</v>
+      </c>
+      <c r="J25">
+        <v>1.175272391970841</v>
+      </c>
+      <c r="K25">
+        <v>0.78492433324757149</v>
+      </c>
+      <c r="L25">
+        <v>0.48399988269257133</v>
+      </c>
+      <c r="M25">
+        <v>0.32422490452031538</v>
+      </c>
+      <c r="N25">
+        <v>0.2616411998797602</v>
+      </c>
+      <c r="O25">
+        <v>0.24592971222758811</v>
+      </c>
+      <c r="P25">
+        <v>0.20308095129896381</v>
+      </c>
+      <c r="Q25">
+        <v>0.1153512850318283</v>
+      </c>
+      <c r="R25">
+        <v>5.6853592133089922E-2</v>
+      </c>
+      <c r="S25">
+        <v>5.9075823915492149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.10828006111639191</v>
+      </c>
+      <c r="D26">
+        <v>0.1415561285295748</v>
+      </c>
+      <c r="E26">
+        <v>0.2021051488768569</v>
+      </c>
+      <c r="F26">
+        <v>0.12531363399060999</v>
+      </c>
+      <c r="G26">
+        <v>0.24293822285055111</v>
+      </c>
+      <c r="H26">
+        <v>0.35591844169569892</v>
+      </c>
+      <c r="I26">
+        <v>0.65658713239084343</v>
+      </c>
+      <c r="J26">
+        <v>0.7719270189489098</v>
+      </c>
+      <c r="K26">
+        <v>0.80195630713943211</v>
+      </c>
+      <c r="L26">
+        <v>0.46920503985668099</v>
+      </c>
+      <c r="M26">
+        <v>0.31637735914809118</v>
+      </c>
+      <c r="N26">
+        <v>0.1515291231185871</v>
+      </c>
+      <c r="O26">
+        <v>0.15709888623638951</v>
+      </c>
+      <c r="P26">
+        <v>0.13172440906240601</v>
+      </c>
+      <c r="Q26">
+        <v>9.6628901247361856E-2</v>
+      </c>
+      <c r="R26">
+        <v>5.0814904049020879E-2</v>
+      </c>
+      <c r="S26">
+        <v>4.7799607182574073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>3.1429895023783627E-2</v>
+      </c>
+      <c r="D27">
+        <v>5.2051325659338891E-2</v>
+      </c>
+      <c r="E27">
+        <v>6.1790692164395943E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.11375347053312949</v>
+      </c>
+      <c r="G27">
+        <v>0.16887564814068279</v>
+      </c>
+      <c r="H27">
+        <v>0.25577589489493352</v>
+      </c>
+      <c r="I27">
+        <v>0.41923918947355687</v>
+      </c>
+      <c r="J27">
+        <v>0.50953920798835917</v>
+      </c>
+      <c r="K27">
+        <v>0.46824506947223232</v>
+      </c>
+      <c r="L27">
+        <v>0.46109265455135029</v>
+      </c>
+      <c r="M27">
+        <v>0.35259343689940997</v>
+      </c>
+      <c r="N27">
+        <v>0.16436879787923989</v>
+      </c>
+      <c r="O27">
+        <v>0.12794467800682491</v>
+      </c>
+      <c r="P27">
+        <v>0.1000687999845776</v>
+      </c>
+      <c r="Q27">
+        <v>8.5997062971812824E-2</v>
+      </c>
+      <c r="R27">
+        <v>8.2708913572112769E-2</v>
+      </c>
+      <c r="S27">
+        <v>3.4554747372157411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>4.9125249099220253E-2</v>
+      </c>
+      <c r="D28">
+        <v>9.2890497304548181E-2</v>
+      </c>
+      <c r="E28">
+        <v>9.6096408611069578E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.13788990808179341</v>
+      </c>
+      <c r="G28">
+        <v>0.27197664714761549</v>
+      </c>
+      <c r="H28">
+        <v>0.42124452858116929</v>
+      </c>
+      <c r="I28">
+        <v>0.41260312168217422</v>
+      </c>
+      <c r="J28">
+        <v>0.43545235686698758</v>
+      </c>
+      <c r="K28">
+        <v>0.471972765759128</v>
+      </c>
+      <c r="L28">
+        <v>0.50653893240705916</v>
+      </c>
+      <c r="M28">
+        <v>0.3910264386345596</v>
+      </c>
+      <c r="N28">
+        <v>0.31546666785040772</v>
+      </c>
+      <c r="O28">
+        <v>0.20982309578904851</v>
+      </c>
+      <c r="P28">
+        <v>0.13691317229286801</v>
+      </c>
+      <c r="Q28">
+        <v>8.7011837063599315E-2</v>
+      </c>
+      <c r="R28">
+        <v>7.3063785878610205E-2</v>
+      </c>
+      <c r="S28">
+        <v>4.1090954130498583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>6.8094591879453589E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.1046760475473319E-2</v>
+      </c>
+      <c r="E29">
+        <v>5.9847614226106668E-2</v>
+      </c>
+      <c r="F29">
+        <v>6.8561667061366502E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.18543840326552191</v>
+      </c>
+      <c r="H29">
+        <v>0.38138414006825588</v>
+      </c>
+      <c r="I29">
+        <v>0.52823250347377615</v>
+      </c>
+      <c r="J29">
+        <v>0.476859860057467</v>
+      </c>
+      <c r="K29">
+        <v>0.44641495937493492</v>
+      </c>
+      <c r="L29">
+        <v>0.302272899297992</v>
+      </c>
+      <c r="M29">
+        <v>0.43591248411608469</v>
+      </c>
+      <c r="N29">
+        <v>0.41442476804442691</v>
+      </c>
+      <c r="O29">
+        <v>0.29367210914017089</v>
+      </c>
+      <c r="P29">
+        <v>0.1958107723513616</v>
+      </c>
+      <c r="Q29">
+        <v>0.1046445387410542</v>
+      </c>
+      <c r="R29">
+        <v>7.0773911562052538E-2</v>
+      </c>
+      <c r="S29">
+        <v>4.0933919831354988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>5.0090981759548049E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.5187849805635757E-2</v>
+      </c>
+      <c r="E30">
+        <v>4.3282581603941828E-2</v>
+      </c>
+      <c r="F30">
+        <v>6.6377430474711202E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.15109734197952429</v>
+      </c>
+      <c r="H30">
+        <v>0.28370909656160698</v>
+      </c>
+      <c r="I30">
+        <v>0.39135009014590982</v>
+      </c>
+      <c r="J30">
+        <v>0.5103391516054242</v>
+      </c>
+      <c r="K30">
+        <v>0.42153149371608623</v>
+      </c>
+      <c r="L30">
+        <v>0.3279557353142793</v>
+      </c>
+      <c r="M30">
+        <v>0.29165416519738102</v>
+      </c>
+      <c r="N30">
+        <v>0.368064060530715</v>
+      </c>
+      <c r="O30">
+        <v>0.3503446637075715</v>
+      </c>
+      <c r="P30">
+        <v>0.30514764090011243</v>
+      </c>
+      <c r="Q30">
+        <v>0.20636598485601601</v>
+      </c>
+      <c r="R30">
+        <v>0.1078634602278085</v>
+      </c>
+      <c r="S30">
+        <v>3.9303617283862722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>5.6878045899795629E-2</v>
+      </c>
+      <c r="D31">
+        <v>7.5766034183539874E-2</v>
+      </c>
+      <c r="E31">
+        <v>4.3873578209992443E-2</v>
+      </c>
+      <c r="F31">
+        <v>4.458327407950681E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.14056313031361711</v>
+      </c>
+      <c r="H31">
+        <v>0.26787197639472138</v>
+      </c>
+      <c r="I31">
+        <v>0.45321577191821399</v>
+      </c>
+      <c r="J31">
+        <v>0.44191857458657641</v>
+      </c>
+      <c r="K31">
+        <v>0.40291488935141362</v>
+      </c>
+      <c r="L31">
+        <v>0.30780180208737062</v>
+      </c>
+      <c r="M31">
+        <v>0.33428383854785748</v>
+      </c>
+      <c r="N31">
+        <v>0.36861546174452231</v>
+      </c>
+      <c r="O31">
+        <v>0.38258949948126381</v>
+      </c>
+      <c r="P31">
+        <v>0.3981418646060596</v>
+      </c>
+      <c r="Q31">
+        <v>0.20340371182570549</v>
+      </c>
+      <c r="R31">
+        <v>0.15116828595654369</v>
+      </c>
+      <c r="S31">
+        <v>4.0735897391867004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>2.0548063098468891E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.389327857263621E-2</v>
+      </c>
+      <c r="E32">
+        <v>5.7624172619060457E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.1038057827334635</v>
+      </c>
+      <c r="G32">
+        <v>0.1039596482125824</v>
+      </c>
+      <c r="H32">
+        <v>0.18496924405717219</v>
+      </c>
+      <c r="I32">
+        <v>0.25462728673994289</v>
+      </c>
+      <c r="J32">
+        <v>0.38560610952501367</v>
+      </c>
+      <c r="K32">
+        <v>0.43246273192695178</v>
+      </c>
+      <c r="L32">
+        <v>0.31317241686925951</v>
+      </c>
+      <c r="M32">
+        <v>0.25168565756920469</v>
+      </c>
+      <c r="N32">
+        <v>0.25596160917303867</v>
+      </c>
+      <c r="O32">
+        <v>0.46102088759250881</v>
+      </c>
+      <c r="P32">
+        <v>0.49627821887335583</v>
+      </c>
+      <c r="Q32">
+        <v>0.44107941616391161</v>
+      </c>
+      <c r="R32">
+        <v>0.2002870388101429</v>
+      </c>
+      <c r="S32">
+        <v>4.0069815625367138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>3.9488547964370811E-2</v>
+      </c>
+      <c r="D33">
+        <v>4.0481022122293889E-2</v>
+      </c>
+      <c r="E33">
+        <v>5.4481801708713147E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.905399425762439E-2</v>
+      </c>
+      <c r="G33">
+        <v>6.8675404113232461E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.1118906329031457</v>
+      </c>
+      <c r="I33">
+        <v>0.28394659454610988</v>
+      </c>
+      <c r="J33">
+        <v>0.24797257500570299</v>
+      </c>
+      <c r="K33">
+        <v>0.22658005649825841</v>
+      </c>
+      <c r="L33">
+        <v>0.26997689684901027</v>
+      </c>
+      <c r="M33">
+        <v>0.19348899042534201</v>
+      </c>
+      <c r="N33">
+        <v>0.19014532398659251</v>
+      </c>
+      <c r="O33">
+        <v>0.19694303909688329</v>
+      </c>
+      <c r="P33">
+        <v>0.31362540178390491</v>
+      </c>
+      <c r="Q33">
+        <v>0.26339478366814789</v>
+      </c>
+      <c r="R33">
+        <v>0.2225792443760897</v>
+      </c>
+      <c r="S33">
+        <v>2.7527243093054228</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5561,10 +9552,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5602,27 +9593,59 @@
       <c r="A2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="44">
         <v>20.339274400695444</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="44">
         <v>31.026442579231965</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <v>22.82845720516082</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="44">
         <v>19.587718738182122</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="44">
         <v>4.4386108805516402</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="44">
         <v>1.779496196178006</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>23.55155832764364</v>
+      </c>
+      <c r="C3">
+        <v>29.718374424652687</v>
+      </c>
+      <c r="D3">
+        <v>21.091667618323317</v>
+      </c>
+      <c r="E3">
+        <v>18.652996827541187</v>
+      </c>
+      <c r="F3">
+        <v>5.0211024800577313</v>
+      </c>
+      <c r="G3">
+        <v>1.9643003217814363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5631,10 +9654,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +9703,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -5703,7 +9726,7 @@
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24"/>
       <c r="D3" s="23"/>
@@ -5713,9 +9736,44 @@
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
+    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="90">
+        <v>0</v>
+      </c>
+      <c r="F4" s="90">
+        <v>0</v>
+      </c>
+      <c r="G4" s="90">
+        <v>10</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="85"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5728,10 +9786,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5793,7 +9851,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="60" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -5805,7 +9863,7 @@
       <c r="D2" s="34">
         <v>0.1</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="52">
         <v>1</v>
       </c>
       <c r="F2" s="19">
@@ -5830,278 +9888,278 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52">
-        <v>1</v>
-      </c>
-      <c r="F3" s="52">
-        <v>1</v>
-      </c>
-      <c r="G3" s="52">
-        <v>1</v>
-      </c>
-      <c r="H3" s="52">
-        <v>1</v>
-      </c>
-      <c r="I3" s="52">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="58"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="47">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47">
+        <v>1</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47">
+        <v>1</v>
+      </c>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
+        <v>1</v>
+      </c>
+      <c r="I4" s="47">
+        <v>0</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>1</v>
-      </c>
-      <c r="G4" s="52">
-        <v>1</v>
-      </c>
-      <c r="H4" s="52">
-        <v>1</v>
-      </c>
-      <c r="I4" s="52">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="58"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="53">
+      <c r="D5" s="48">
         <v>0.3</v>
       </c>
-      <c r="E5" s="56">
-        <v>1</v>
-      </c>
-      <c r="F5" s="52">
-        <v>1</v>
-      </c>
-      <c r="G5" s="52">
-        <v>1</v>
-      </c>
-      <c r="H5" s="52">
-        <v>1</v>
-      </c>
-      <c r="I5" s="52">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="54">
+      <c r="E5" s="51">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
+        <v>1</v>
+      </c>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="49">
         <f>M2</f>
         <v>43976</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="53">
         <v>43990</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="53">
+      <c r="C6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="48">
         <v>0.4</v>
       </c>
-      <c r="E6" s="56">
-        <v>1</v>
-      </c>
-      <c r="F6" s="52">
-        <v>1</v>
-      </c>
-      <c r="G6" s="52">
-        <v>1</v>
-      </c>
-      <c r="H6" s="52">
-        <v>1</v>
-      </c>
-      <c r="I6" s="52">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="54">
+      <c r="E6" s="51">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
+        <v>1</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="49">
         <f t="shared" ref="L6:L7" si="0">M5</f>
         <v>43990</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="53">
         <v>44000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="C7" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="48">
         <v>0.5</v>
       </c>
-      <c r="E7" s="52">
-        <v>1</v>
-      </c>
-      <c r="F7" s="52">
-        <v>1</v>
-      </c>
-      <c r="G7" s="52">
-        <v>1</v>
-      </c>
-      <c r="H7" s="52">
-        <v>1</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="54">
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1</v>
+      </c>
+      <c r="G7" s="47">
+        <v>1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1</v>
+      </c>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="49">
         <f t="shared" si="0"/>
         <v>44000</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="53">
         <v>44004</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="A8" s="61"/>
+      <c r="B8" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="48">
         <v>0.7</v>
       </c>
-      <c r="E8" s="56">
-        <v>1</v>
-      </c>
-      <c r="F8" s="52">
-        <v>1</v>
-      </c>
-      <c r="G8" s="52">
-        <v>1</v>
-      </c>
-      <c r="H8" s="52">
-        <v>1</v>
-      </c>
-      <c r="I8" s="52">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="54">
+      <c r="E8" s="51">
+        <v>1</v>
+      </c>
+      <c r="F8" s="47">
+        <v>1</v>
+      </c>
+      <c r="G8" s="47">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47">
+        <v>1</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="49">
         <f>M7</f>
         <v>44004</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="53">
         <v>44037</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="51">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47">
+        <v>1</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="49">
+        <v>44037</v>
+      </c>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="53">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="56">
-        <v>1</v>
-      </c>
-      <c r="F9" s="52">
-        <v>1</v>
-      </c>
-      <c r="G9" s="52">
-        <v>1</v>
-      </c>
-      <c r="H9" s="52">
-        <v>1</v>
-      </c>
-      <c r="I9" s="52">
-        <v>0</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="54">
-        <v>44037</v>
-      </c>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="D10" s="48">
         <v>0.5</v>
       </c>
-      <c r="E10" s="56">
-        <v>1</v>
-      </c>
-      <c r="F10" s="52">
-        <v>1</v>
-      </c>
-      <c r="G10" s="52">
-        <v>1</v>
-      </c>
-      <c r="H10" s="52">
-        <v>1</v>
-      </c>
-      <c r="I10" s="52">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="58"/>
+      <c r="E10" s="51">
+        <v>1</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>0</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>98</v>
+      <c r="C11" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="35">
         <v>0.4</v>
@@ -6123,12 +10181,344 @@
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="59"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="24"/>
     </row>
+    <row r="12" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="67">
+        <v>1</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1</v>
+      </c>
+      <c r="G12" s="65">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="65">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="68">
+        <v>43905</v>
+      </c>
+      <c r="M12" s="68">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72">
+        <v>1</v>
+      </c>
+      <c r="F13" s="72">
+        <v>1</v>
+      </c>
+      <c r="G13" s="72">
+        <v>1</v>
+      </c>
+      <c r="H13" s="72">
+        <v>1</v>
+      </c>
+      <c r="I13" s="72">
+        <v>0</v>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+    </row>
+    <row r="14" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="76">
+        <v>1</v>
+      </c>
+      <c r="F14" s="72">
+        <v>1</v>
+      </c>
+      <c r="G14" s="72">
+        <v>1</v>
+      </c>
+      <c r="H14" s="72">
+        <v>1</v>
+      </c>
+      <c r="I14" s="72">
+        <v>0</v>
+      </c>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+    </row>
+    <row r="15" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="76">
+        <v>1</v>
+      </c>
+      <c r="F15" s="72">
+        <v>1</v>
+      </c>
+      <c r="G15" s="72">
+        <v>1</v>
+      </c>
+      <c r="H15" s="72">
+        <v>1</v>
+      </c>
+      <c r="I15" s="72">
+        <v>0</v>
+      </c>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+    </row>
+    <row r="16" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="76">
+        <v>1</v>
+      </c>
+      <c r="F16" s="72">
+        <v>1</v>
+      </c>
+      <c r="G16" s="72">
+        <v>1</v>
+      </c>
+      <c r="H16" s="72">
+        <v>1</v>
+      </c>
+      <c r="I16" s="72">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="74">
+        <f>M12</f>
+        <v>43990</v>
+      </c>
+      <c r="M16" s="75">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="72">
+        <v>1</v>
+      </c>
+      <c r="F17" s="72">
+        <v>1</v>
+      </c>
+      <c r="G17" s="72">
+        <v>1</v>
+      </c>
+      <c r="H17" s="72">
+        <v>1</v>
+      </c>
+      <c r="I17" s="72">
+        <v>0</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="74">
+        <f t="shared" ref="L16:L18" si="1">M16</f>
+        <v>44000</v>
+      </c>
+      <c r="M17" s="75">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="76">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72">
+        <v>1</v>
+      </c>
+      <c r="G18" s="72">
+        <v>1</v>
+      </c>
+      <c r="H18" s="72">
+        <v>1</v>
+      </c>
+      <c r="I18" s="72">
+        <v>0</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="74">
+        <f>M17</f>
+        <v>44004</v>
+      </c>
+      <c r="M18" s="75">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="76">
+        <v>1</v>
+      </c>
+      <c r="F19" s="72">
+        <v>1</v>
+      </c>
+      <c r="G19" s="72">
+        <v>1</v>
+      </c>
+      <c r="H19" s="72">
+        <v>1</v>
+      </c>
+      <c r="I19" s="72">
+        <v>0</v>
+      </c>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="74">
+        <v>44042</v>
+      </c>
+      <c r="M19" s="78"/>
+    </row>
+    <row r="20" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="76">
+        <v>1</v>
+      </c>
+      <c r="F20" s="72">
+        <v>1</v>
+      </c>
+      <c r="G20" s="72">
+        <v>1</v>
+      </c>
+      <c r="H20" s="72">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72">
+        <v>0</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+    </row>
+    <row r="21" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="82">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="83">
+        <v>1</v>
+      </c>
+      <c r="F21" s="83">
+        <v>1</v>
+      </c>
+      <c r="G21" s="83">
+        <v>1</v>
+      </c>
+      <c r="H21" s="83">
+        <v>1</v>
+      </c>
+      <c r="I21" s="83">
+        <v>0</v>
+      </c>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
+    </row>
+    <row r="22" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="86"/>
+      <c r="D22" s="73"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6140,10 +10530,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6305,6 +10695,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43881</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>100000</v>
+      </c>
+      <c r="F3">
+        <f>6661949/E3</f>
+        <v>66.619489999999999</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>1.2</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+      <c r="R3">
+        <v>1000</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0.7</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W2" xr:uid="{0D1D9754-CC08-A446-AB19-73C80E4808E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6318,10 +10780,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,6 +10864,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6413,10 +10907,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6496,6 +10990,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="16">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>110</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6506,10 +11032,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,6 +11115,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>110</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6599,10 +11157,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6683,6 +11241,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input_data_Spain.xlsx
+++ b/data/input_data_Spain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010C002-49AC-4AAF-8537-96EEAA1B64C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630AA2F-83CF-462E-9486-35DA35E6237D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -857,6 +857,43 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -864,6 +901,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,55 +921,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="43" t="s">
         <v>20</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="43" t="s">
@@ -1827,7 +1827,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="43" t="s">
         <v>21</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -2957,7 +2957,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
@@ -3299,7 +3299,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -3527,7 +3527,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
       </c>
@@ -3698,7 +3698,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
@@ -3755,7 +3755,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3952,7 +3952,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4123,7 +4123,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4465,7 +4465,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4693,7 +4693,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4750,7 +4750,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -4866,7 +4866,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -5550,7 +5550,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
       </c>
@@ -5607,7 +5607,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
       </c>
@@ -5802,7 +5802,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5861,7 +5861,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5918,7 +5918,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +5975,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6032,7 +6032,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -6317,7 +6317,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6545,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6602,7 +6602,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6716,7 +6716,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
       </c>
@@ -6946,7 +6946,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -7003,7 +7003,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
@@ -7117,7 +7117,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
       </c>
@@ -7231,7 +7231,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
       </c>
@@ -7516,7 +7516,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
@@ -7573,7 +7573,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7770,7 +7770,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7884,7 +7884,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +7998,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8283,7 +8283,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8397,7 +8397,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8568,7 +8568,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8625,7 +8625,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="84" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -8684,7 +8684,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
@@ -8741,7 +8741,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
@@ -8798,7 +8798,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
@@ -8912,7 +8912,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
@@ -8969,7 +8969,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
@@ -9083,7 +9083,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
       </c>
@@ -9197,7 +9197,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
@@ -9368,7 +9368,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
       </c>
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
       </c>
@@ -9636,12 +9636,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9703,7 +9703,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="85" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -9726,7 +9726,7 @@
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24"/>
       <c r="D3" s="23"/>
@@ -9736,39 +9736,39 @@
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="90">
-        <v>0</v>
-      </c>
-      <c r="F4" s="90">
-        <v>0</v>
-      </c>
-      <c r="G4" s="90">
+      <c r="E4" s="80">
+        <v>0</v>
+      </c>
+      <c r="F4" s="80">
+        <v>0</v>
+      </c>
+      <c r="G4" s="80">
         <v>10</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="89"/>
-    </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="85"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9788,8 +9788,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9851,7 +9851,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="89" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -9888,7 +9888,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="46" t="s">
         <v>80</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>89</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>86</v>
       </c>
@@ -9982,7 +9982,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>87</v>
       </c>
@@ -10018,7 +10018,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>88</v>
       </c>
@@ -10054,7 +10054,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>98</v>
       </c>
@@ -10090,7 +10090,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>93</v>
       </c>
@@ -10123,7 +10123,7 @@
       <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="46" t="s">
         <v>82</v>
       </c>
@@ -10154,7 +10154,7 @@
       <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="29" t="s">
         <v>85</v>
       </c>
@@ -10184,336 +10184,336 @@
       <c r="L11" s="54"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="59">
         <v>0.1</v>
       </c>
-      <c r="E12" s="67">
-        <v>1</v>
-      </c>
-      <c r="F12" s="65">
-        <v>1</v>
-      </c>
-      <c r="G12" s="65">
-        <v>1</v>
-      </c>
-      <c r="H12" s="65">
-        <v>1</v>
-      </c>
-      <c r="I12" s="65">
-        <v>0</v>
-      </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="68">
+      <c r="E12" s="60">
+        <v>1</v>
+      </c>
+      <c r="F12" s="58">
+        <v>1</v>
+      </c>
+      <c r="G12" s="58">
+        <v>1</v>
+      </c>
+      <c r="H12" s="58">
+        <v>1</v>
+      </c>
+      <c r="I12" s="58">
+        <v>0</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="61">
         <v>43905</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="61">
         <v>43990</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="72">
-        <v>1</v>
-      </c>
-      <c r="F13" s="72">
-        <v>1</v>
-      </c>
-      <c r="G13" s="72">
-        <v>1</v>
-      </c>
-      <c r="H13" s="72">
-        <v>1</v>
-      </c>
-      <c r="I13" s="72">
-        <v>0</v>
-      </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-    </row>
-    <row r="14" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="64">
+        <v>1</v>
+      </c>
+      <c r="F13" s="64">
+        <v>1</v>
+      </c>
+      <c r="G13" s="64">
+        <v>1</v>
+      </c>
+      <c r="H13" s="64">
+        <v>1</v>
+      </c>
+      <c r="I13" s="64">
+        <v>0</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+    </row>
+    <row r="14" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="76">
-        <v>1</v>
-      </c>
-      <c r="F14" s="72">
-        <v>1</v>
-      </c>
-      <c r="G14" s="72">
-        <v>1</v>
-      </c>
-      <c r="H14" s="72">
-        <v>1</v>
-      </c>
-      <c r="I14" s="72">
-        <v>0</v>
-      </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-    </row>
-    <row r="15" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="64">
+        <v>1</v>
+      </c>
+      <c r="G14" s="64">
+        <v>1</v>
+      </c>
+      <c r="H14" s="64">
+        <v>1</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+    </row>
+    <row r="15" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93"/>
+      <c r="B15" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="76">
-        <v>1</v>
-      </c>
-      <c r="F15" s="72">
-        <v>1</v>
-      </c>
-      <c r="G15" s="72">
-        <v>1</v>
-      </c>
-      <c r="H15" s="72">
-        <v>1</v>
-      </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="68">
+        <v>1</v>
+      </c>
+      <c r="F15" s="64">
+        <v>1</v>
+      </c>
+      <c r="G15" s="64">
+        <v>1</v>
+      </c>
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64">
+        <v>0</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+    </row>
+    <row r="16" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="65">
         <v>0.3</v>
       </c>
-      <c r="E16" s="76">
-        <v>1</v>
-      </c>
-      <c r="F16" s="72">
-        <v>1</v>
-      </c>
-      <c r="G16" s="72">
-        <v>1</v>
-      </c>
-      <c r="H16" s="72">
-        <v>1</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0</v>
-      </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="74">
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64">
+        <v>1</v>
+      </c>
+      <c r="G16" s="64">
+        <v>1</v>
+      </c>
+      <c r="H16" s="64">
+        <v>1</v>
+      </c>
+      <c r="I16" s="64">
+        <v>0</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="66">
         <f>M12</f>
         <v>43990</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="67">
         <v>44000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71" t="s">
+    <row r="17" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="65">
         <v>0.4</v>
       </c>
-      <c r="E17" s="72">
-        <v>1</v>
-      </c>
-      <c r="F17" s="72">
-        <v>1</v>
-      </c>
-      <c r="G17" s="72">
-        <v>1</v>
-      </c>
-      <c r="H17" s="72">
-        <v>1</v>
-      </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="74">
-        <f t="shared" ref="L16:L18" si="1">M16</f>
+      <c r="E17" s="64">
+        <v>1</v>
+      </c>
+      <c r="F17" s="64">
+        <v>1</v>
+      </c>
+      <c r="G17" s="64">
+        <v>1</v>
+      </c>
+      <c r="H17" s="64">
+        <v>1</v>
+      </c>
+      <c r="I17" s="64">
+        <v>0</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="66">
+        <f t="shared" ref="L17" si="1">M16</f>
         <v>44000</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="67">
         <v>44004</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71" t="s">
+    <row r="18" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="65">
         <v>0.5</v>
       </c>
-      <c r="E18" s="76">
-        <v>1</v>
-      </c>
-      <c r="F18" s="72">
-        <v>1</v>
-      </c>
-      <c r="G18" s="72">
-        <v>1</v>
-      </c>
-      <c r="H18" s="72">
-        <v>1</v>
-      </c>
-      <c r="I18" s="72">
-        <v>0</v>
-      </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="74">
+      <c r="E18" s="68">
+        <v>1</v>
+      </c>
+      <c r="F18" s="64">
+        <v>1</v>
+      </c>
+      <c r="G18" s="64">
+        <v>1</v>
+      </c>
+      <c r="H18" s="64">
+        <v>1</v>
+      </c>
+      <c r="I18" s="64">
+        <v>0</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="66">
         <f>M17</f>
         <v>44004</v>
       </c>
-      <c r="M18" s="75">
+      <c r="M18" s="67">
         <v>44037</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71" t="s">
+    <row r="19" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="E19" s="68">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64">
+        <v>1</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="64">
+        <v>1</v>
+      </c>
+      <c r="I19" s="64">
+        <v>0</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="66">
+        <v>44042</v>
+      </c>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="65">
         <v>0.4</v>
       </c>
-      <c r="E19" s="76">
-        <v>1</v>
-      </c>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="72">
-        <v>1</v>
-      </c>
-      <c r="H19" s="72">
-        <v>1</v>
-      </c>
-      <c r="I19" s="72">
-        <v>0</v>
-      </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="74">
-        <v>44042</v>
-      </c>
-      <c r="M19" s="78"/>
-    </row>
-    <row r="20" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="73">
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="64">
+        <v>1</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1</v>
+      </c>
+      <c r="H20" s="64">
+        <v>1</v>
+      </c>
+      <c r="I20" s="64">
+        <v>0</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
+    </row>
+    <row r="21" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="73">
         <v>0.5</v>
       </c>
-      <c r="E20" s="76">
-        <v>1</v>
-      </c>
-      <c r="F20" s="72">
-        <v>1</v>
-      </c>
-      <c r="G20" s="72">
-        <v>1</v>
-      </c>
-      <c r="H20" s="72">
-        <v>1</v>
-      </c>
-      <c r="I20" s="72">
-        <v>0</v>
-      </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-    </row>
-    <row r="21" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="83">
-        <v>1</v>
-      </c>
-      <c r="F21" s="83">
-        <v>1</v>
-      </c>
-      <c r="G21" s="83">
-        <v>1</v>
-      </c>
-      <c r="H21" s="83">
-        <v>1</v>
-      </c>
-      <c r="I21" s="83">
-        <v>0</v>
-      </c>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
-    </row>
-    <row r="22" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86"/>
-      <c r="D22" s="73"/>
+      <c r="E21" s="74">
+        <v>1</v>
+      </c>
+      <c r="F21" s="74">
+        <v>1</v>
+      </c>
+      <c r="G21" s="74">
+        <v>1</v>
+      </c>
+      <c r="H21" s="74">
+        <v>1</v>
+      </c>
+      <c r="I21" s="74">
+        <v>0</v>
+      </c>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+    </row>
+    <row r="22" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="77"/>
+      <c r="D22" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10532,8 +10532,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
